--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812D960D-5A53-491B-BA7E-236D60B72F95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F32984-AEC9-42A7-9333-DDD3DC553D2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Navigation Component</t>
   </si>
   <si>
-    <t>Router</t>
-  </si>
-  <si>
     <t>Create a Test Set of at least 20 Appointments that cover different relationships</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Display the upcoming appointments of a patient on his profile.</t>
   </si>
   <si>
-    <t>Set up a routing mechanism</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
@@ -420,6 +414,12 @@
   </si>
   <si>
     <t>View Patients</t>
+  </si>
+  <si>
+    <t>Navigation Architecture</t>
+  </si>
+  <si>
+    <t>Set up page skeletons and a routing mechanism</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -560,6 +560,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,7 +1297,7 @@
       </c>
       <c r="F2" s="11">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!K:K)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="11">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!L:L)</f>
@@ -1303,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>44</v>
@@ -1594,7 +1603,7 @@
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,10 +1741,12 @@
       <c r="E2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H2" s="9"/>
       <c r="I2" s="11" t="s">
         <v>5</v>
@@ -1768,7 +1779,7 @@
       <c r="E3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="25" t="s">
         <v>97</v>
       </c>
       <c r="G3" s="13"/>
@@ -1806,7 +1817,7 @@
       <c r="E4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="24" t="s">
         <v>98</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -1817,10 +1828,10 @@
         <v>6</v>
       </c>
       <c r="J4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11" t="s">
@@ -1844,7 +1855,7 @@
       <c r="E5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="25" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="13"/>
@@ -1882,7 +1893,7 @@
       <c r="E6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1920,7 +1931,7 @@
       <c r="E7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="25" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="13"/>
@@ -1939,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1.7</v>
       </c>
@@ -1951,13 +1962,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -1992,8 +2003,8 @@
       <c r="E9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>122</v>
+      <c r="F9" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -2028,7 +2039,7 @@
       <c r="E10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="24" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="9"/>
@@ -2064,10 +2075,12 @@
       <c r="E11" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="15" t="s">
         <v>5</v>
@@ -2100,7 +2113,7 @@
       <c r="E12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="24" t="s">
         <v>96</v>
       </c>
       <c r="G12" s="9"/>
@@ -2138,7 +2151,7 @@
       <c r="E13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="25" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -2174,9 +2187,9 @@
         <v>72</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="9"/>
@@ -2210,9 +2223,9 @@
         <v>73</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>90</v>
       </c>
       <c r="G15" s="13"/>
@@ -2248,10 +2261,12 @@
       <c r="E16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="11" t="s">
         <v>5</v>
@@ -2282,9 +2297,9 @@
         <v>80</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="13"/>
@@ -2320,9 +2335,9 @@
         <v>67</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>93</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -2358,9 +2373,9 @@
         <v>74</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>92</v>
       </c>
       <c r="G19" s="13"/>
@@ -2394,9 +2409,9 @@
         <v>75</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="9"/>
@@ -2431,9 +2446,9 @@
         <v>76</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>100</v>
       </c>
       <c r="G21" s="13"/>
@@ -2464,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="9" t="s">
         <v>119</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -8254,7 +8269,7 @@
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
       <c r="B362" s="7" t="e">
-        <f t="shared" ref="B329:B392" si="6">LEFT(A362, FIND(".",A362)-1)</f>
+        <f t="shared" ref="B362:B392" si="6">LEFT(A362, FIND(".",A362)-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C362" s="7"/>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F32984-AEC9-42A7-9333-DDD3DC553D2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE574A7-36A5-4D95-9263-63B0B6F709BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Available Ressources" sheetId="5" r:id="rId2"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId4"/>
-    <sheet name="BurndownChart" sheetId="4" r:id="rId5"/>
-    <sheet name="Status" sheetId="6" r:id="rId6"/>
+    <sheet name="Review" sheetId="7" r:id="rId5"/>
+    <sheet name="BurndownChart" sheetId="4" r:id="rId6"/>
+    <sheet name="Status" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Status!$A$1:$A$4</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -420,6 +421,24 @@
   </si>
   <si>
     <t>Set up page skeletons and a routing mechanism</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>Sprint 1 per Person</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Planned Hours</t>
   </si>
 </sst>
 </file>
@@ -496,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -569,6 +588,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,7 +936,7 @@
   <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,12 +1088,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1162,8 @@
   <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="15">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A5,'Sprint Backlog'!K:K)</f>
@@ -1405,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="11">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A6,'Sprint Backlog'!K:K)</f>
@@ -1433,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="15">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A7,'Sprint Backlog'!K:K)</f>
@@ -1461,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="11">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A8,'Sprint Backlog'!K:K)</f>
@@ -1489,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="15">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A9,'Sprint Backlog'!K:K)</f>
@@ -1517,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="11">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A10,'Sprint Backlog'!K:K)</f>
@@ -1545,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F11" s="15">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A11,'Sprint Backlog'!K:K)</f>
@@ -1570,10 +1596,10 @@
         <v>55</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="E12" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="11">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A12,'Sprint Backlog'!K:K)</f>
@@ -1602,8 +1628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1774,9 @@
       <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
@@ -1782,7 +1811,9 @@
       <c r="F3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="13" t="s">
         <v>35</v>
       </c>
@@ -1823,7 +1854,9 @@
       <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1891,9 @@
       <c r="F5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="13" t="s">
         <v>35</v>
       </c>
@@ -1899,7 +1934,9 @@
       <c r="G6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1934,8 +1971,12 @@
       <c r="F7" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="15" t="s">
         <v>5</v>
       </c>
@@ -1970,8 +2011,12 @@
       <c r="F8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="23" t="s">
         <v>5</v>
       </c>
@@ -2006,8 +2051,12 @@
       <c r="F9" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="15" t="s">
         <v>6</v>
       </c>
@@ -2042,8 +2091,12 @@
       <c r="F10" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2134,9 @@
       <c r="G11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2171,9 @@
       <c r="F12" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2214,9 @@
       <c r="G13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="15" t="s">
         <v>6</v>
       </c>
@@ -2192,8 +2251,12 @@
       <c r="F14" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2228,8 +2291,12 @@
       <c r="F15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I15" s="15" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2334,9 @@
       <c r="G16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2371,9 @@
       <c r="F17" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H17" s="13" t="s">
         <v>35</v>
       </c>
@@ -2343,7 +2414,9 @@
       <c r="G18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="I18" s="11" t="s">
         <v>6</v>
       </c>
@@ -2378,8 +2451,12 @@
       <c r="F19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="I19" s="15" t="s">
         <v>6</v>
       </c>
@@ -2414,8 +2491,12 @@
       <c r="F20" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="I20" s="11" t="s">
         <v>6</v>
       </c>
@@ -2451,8 +2532,12 @@
       <c r="F21" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" s="15" t="s">
         <v>7</v>
       </c>
@@ -2487,8 +2572,12 @@
       <c r="F22" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I22" s="11" t="s">
         <v>7</v>
       </c>
@@ -9600,6 +9689,180 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C50E621-2136-4AD7-A410-32E3BCA06241}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17">
+        <f>'Available Ressources'!$B$2</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="17">
+        <f>SUMIF('Sprint Backlog'!G:G,Review!$C3,'Sprint Backlog'!$J:$J)</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="17">
+        <f>SUMIF('Sprint Backlog'!H:H,Review!$C3,'Sprint Backlog'!$J:$J)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17">
+        <f>'Available Ressources'!$B$2</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="17">
+        <f>SUMIF('Sprint Backlog'!G:G,Review!$C4,'Sprint Backlog'!$J:$J)</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="17">
+        <f>SUMIF('Sprint Backlog'!H:H,Review!$C4,'Sprint Backlog'!$J:$J)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="17">
+        <f>'Available Ressources'!$B$2</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="17">
+        <f>SUMIF('Sprint Backlog'!G:G,Review!$C5,'Sprint Backlog'!$J:$J)</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="17">
+        <f>SUMIF('Sprint Backlog'!H:H,Review!$C5,'Sprint Backlog'!$J:$J)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="17">
+        <f>'Available Ressources'!$B$2</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="17">
+        <f>SUMIF('Sprint Backlog'!G:G,Review!$C6,'Sprint Backlog'!$J:$J)</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="17">
+        <f>SUMIF('Sprint Backlog'!H:H,Review!$C6,'Sprint Backlog'!$J:$J)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17">
+        <f>'Available Ressources'!$B$2</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="17">
+        <f>SUMIF('Sprint Backlog'!G:G,Review!$C7,'Sprint Backlog'!$J:$J)</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="17">
+        <f>SUMIF('Sprint Backlog'!H:H,Review!$C7,'Sprint Backlog'!$J:$J)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9662,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A0E942-7A01-4A0F-949D-52DFCE20B935}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE574A7-36A5-4D95-9263-63B0B6F709BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF85E6A2-B025-47DF-B764-4DB71E78C0B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -439,6 +439,36 @@
   </si>
   <si>
     <t>Planned Hours</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Künzler, Urs</t>
+  </si>
+  <si>
+    <t>Vogel, Jürgen</t>
+  </si>
+  <si>
+    <t>UrsKuenzler</t>
+  </si>
+  <si>
+    <t>vgj1</t>
+  </si>
+  <si>
+    <t>vj</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
   </si>
 </sst>
 </file>
@@ -515,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -595,6 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,6 +975,7 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="2" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,7 +988,9 @@
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1"/>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
@@ -1032,6 +1066,9 @@
       <c r="C2" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="D2" s="29" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1043,6 +1080,9 @@
       <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
+      <c r="D3" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -1054,6 +1094,9 @@
       <c r="C4" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="D4" s="29" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -1065,6 +1108,9 @@
       <c r="C5" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="D5" s="18" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -1075,6 +1121,37 @@
       </c>
       <c r="C6" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -9692,7 +9769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C50E621-2136-4AD7-A410-32E3BCA06241}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF85E6A2-B025-47DF-B764-4DB71E78C0B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A722D34A-4FB0-4A04-BC40-E1E7C261FCEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -619,13 +619,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1071,7 @@
       <c r="C2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1094,7 +1099,7 @@
       <c r="C4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1122,7 +1127,7 @@
       <c r="C6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1141,7 +1146,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1150,7 +1155,7 @@
       <c r="C8" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1164,11 +1169,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582EE766-F09B-428A-AF9A-1AFD22CC7909}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1198,8 +1206,12 @@
         <f>B2*5</f>
         <v>40</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="30">
+        <v>43955</v>
+      </c>
+      <c r="E2" s="31">
+        <v>43963</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
@@ -1212,8 +1224,12 @@
         <f t="shared" ref="C3:C4" si="0">B3*5</f>
         <v>70</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="32">
+        <v>43963</v>
+      </c>
+      <c r="E3" s="32">
+        <v>43977</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
@@ -1226,8 +1242,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="31">
+        <v>43977</v>
+      </c>
+      <c r="E4" s="31">
+        <v>43990</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9784,16 +9804,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2010731E-3E5F-4BBB-9180-DF86AB5DE96B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC863166-0F75-4345-87D9-4D30C8936755}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,8 +1748,8 @@
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1760,8 @@
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="13" width="11.7109375" customWidth="1"/>
+    <col min="7" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1907,7 +1908,7 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:79" ht="60" x14ac:dyDescent="0.25">
@@ -1947,7 +1948,7 @@
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:79" ht="45" x14ac:dyDescent="0.25">
@@ -1987,7 +1988,7 @@
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="90" x14ac:dyDescent="0.25">
@@ -2067,7 +2068,7 @@
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:79" ht="90" x14ac:dyDescent="0.25">
@@ -2107,7 +2108,7 @@
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:79" ht="30" x14ac:dyDescent="0.25">
@@ -2387,7 +2388,7 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:79" ht="90" x14ac:dyDescent="0.25">
@@ -2587,7 +2588,7 @@
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biasutti\IdeaProjects\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC863166-0F75-4345-87D9-4D30C8936755}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="Status">Status!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -474,7 +473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,7 +654,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,7 +670,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -746,23 +745,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -798,23 +780,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,14 +955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1188,14 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582EE766-F09B-428A-AF9A-1AFD22CC7909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1277,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1285,7 +1250,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
@@ -1446,7 +1411,7 @@
       </c>
       <c r="G2" s="10">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!L:L)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>8</v>
@@ -1734,7 +1699,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12" xr:uid="{32DBD0D8-4763-4F81-9938-DEA2D4DE1E74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -1744,15 +1709,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" hidden="1" customWidth="1"/>
@@ -1946,9 +1911,11 @@
       <c r="K3" s="14">
         <v>1</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
       <c r="M3" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:79" ht="45" x14ac:dyDescent="0.25">
@@ -1986,9 +1953,11 @@
       <c r="K4" s="10">
         <v>2</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10">
+        <v>3</v>
+      </c>
       <c r="M4" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="90" x14ac:dyDescent="0.25">
@@ -2026,9 +1995,11 @@
       <c r="K5" s="14">
         <v>1</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
       <c r="M5" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:79" ht="30" x14ac:dyDescent="0.25">
@@ -9800,7 +9771,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238" xr:uid="{F88CA476-707C-4D97-8B9D-4282293F709D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -9809,14 +9780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C50E621-2136-4AD7-A410-32E3BCA06241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -9979,14 +9950,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
@@ -10096,14 +10067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A0E942-7A01-4A0F-949D-52DFCE20B935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biasutti\IdeaProjects\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABC6FF-D14C-4DA1-B0A7-C21B2611E9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -21,14 +22,17 @@
     <sheet name="Status" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint Backlog'!$A$1:$CA$443</definedName>
     <definedName name="Status">Status!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -473,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,6 +749,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -780,6 +801,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1242,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1411,7 +1449,7 @@
       </c>
       <c r="G2" s="10">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!L:L)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>8</v>
@@ -1439,7 +1477,7 @@
       </c>
       <c r="G3" s="14">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A3,'Sprint Backlog'!L:L)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>8</v>
@@ -1699,7 +1737,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -1709,12 +1747,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1875,7 @@
       <c r="BZ1"/>
       <c r="CA1"/>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1876,7 +1915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1960,7 +1999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1.4</v>
       </c>
@@ -2037,12 +2076,14 @@
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
       <c r="M6" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1.6</v>
       </c>
@@ -2082,7 +2123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1.7</v>
       </c>
@@ -2122,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>1.8</v>
       </c>
@@ -2162,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:79" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.9</v>
       </c>
@@ -2202,7 +2243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2.1</v>
       </c>
@@ -2242,7 +2283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2317,12 +2358,14 @@
       <c r="K13" s="14">
         <v>1</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
       <c r="M13" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:79" ht="105" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:79" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2.4</v>
       </c>
@@ -2362,7 +2405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2.5</v>
       </c>
@@ -2402,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3.1</v>
       </c>
@@ -2442,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>3.2</v>
       </c>
@@ -2522,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>3.4</v>
       </c>
@@ -2562,7 +2605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>3.5</v>
       </c>
@@ -2602,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="str">
         <f>"1.10"</f>
         <v>1.10</v>
@@ -2643,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2.6</v>
       </c>
@@ -2683,7 +2726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2700,7 +2743,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2717,7 +2760,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2734,7 +2777,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2751,7 +2794,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2768,7 +2811,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2785,7 +2828,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2802,7 +2845,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2819,7 +2862,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2836,7 +2879,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2853,7 +2896,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2870,7 +2913,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2887,7 +2930,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2904,7 +2947,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2921,7 +2964,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2938,7 +2981,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2955,7 +2998,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2972,7 +3015,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2989,7 +3032,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3006,7 +3049,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3023,7 +3066,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3040,7 +3083,7 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3057,7 +3100,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3074,7 +3117,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3091,7 +3134,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3108,7 +3151,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3125,7 +3168,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3142,7 +3185,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3159,7 +3202,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3176,7 +3219,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3193,7 +3236,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3210,7 +3253,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3227,7 +3270,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3244,7 +3287,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3261,7 +3304,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3278,7 +3321,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3295,7 +3338,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3312,7 +3355,7 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3329,7 +3372,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3346,7 +3389,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3363,7 +3406,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3380,7 +3423,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3397,7 +3440,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3414,7 +3457,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3431,7 +3474,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8" t="e">
         <f t="shared" ref="B67:B130" si="1">LEFT(A67, FIND(".",A67)-1)</f>
@@ -3448,7 +3491,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3465,7 +3508,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3482,7 +3525,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3499,7 +3542,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3516,7 +3559,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3533,7 +3576,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3550,7 +3593,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3567,7 +3610,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3584,7 +3627,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3601,7 +3644,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3618,7 +3661,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3635,7 +3678,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3652,7 +3695,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3669,7 +3712,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3686,7 +3729,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3703,7 +3746,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3720,7 +3763,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3737,7 +3780,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3754,7 +3797,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3771,7 +3814,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3788,7 +3831,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3805,7 +3848,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3822,7 +3865,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3839,7 +3882,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3856,7 +3899,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3873,7 +3916,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3890,7 +3933,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3907,7 +3950,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3924,7 +3967,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3941,7 +3984,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3958,7 +4001,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3975,7 +4018,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3992,7 +4035,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4009,7 +4052,7 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4026,7 +4069,7 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4043,7 +4086,7 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4060,7 +4103,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4077,7 +4120,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4094,7 +4137,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4111,7 +4154,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4128,7 +4171,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4145,7 +4188,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4162,7 +4205,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4179,7 +4222,7 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4196,7 +4239,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4213,7 +4256,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4230,7 +4273,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4247,7 +4290,7 @@
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4264,7 +4307,7 @@
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4281,7 +4324,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4298,7 +4341,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4315,7 +4358,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4332,7 +4375,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4349,7 +4392,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4366,7 +4409,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4383,7 +4426,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4400,7 +4443,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4417,7 +4460,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4434,7 +4477,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4451,7 +4494,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4468,7 +4511,7 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4485,7 +4528,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4502,7 +4545,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4519,7 +4562,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="8" t="e">
         <f t="shared" ref="B131:B194" si="2">LEFT(A131, FIND(".",A131)-1)</f>
@@ -4536,7 +4579,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4553,7 +4596,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4570,7 +4613,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4587,7 +4630,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4604,7 +4647,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4621,7 +4664,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4638,7 +4681,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4655,7 +4698,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4672,7 +4715,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4689,7 +4732,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4706,7 +4749,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4723,7 +4766,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4740,7 +4783,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4757,7 +4800,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4774,7 +4817,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4791,7 +4834,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4808,7 +4851,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4825,7 +4868,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4842,7 +4885,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4859,7 +4902,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4876,7 +4919,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4893,7 +4936,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4910,7 +4953,7 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4927,7 +4970,7 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4944,7 +4987,7 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4961,7 +5004,7 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4978,7 +5021,7 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4995,7 +5038,7 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5012,7 +5055,7 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5029,7 +5072,7 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5046,7 +5089,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5063,7 +5106,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5080,7 +5123,7 @@
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5097,7 +5140,7 @@
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5114,7 +5157,7 @@
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5131,7 +5174,7 @@
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5148,7 +5191,7 @@
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5165,7 +5208,7 @@
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5182,7 +5225,7 @@
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5199,7 +5242,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5216,7 +5259,7 @@
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5233,7 +5276,7 @@
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5250,7 +5293,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5267,7 +5310,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5284,7 +5327,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5301,7 +5344,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5318,7 +5361,7 @@
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5335,7 +5378,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5352,7 +5395,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5369,7 +5412,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5386,7 +5429,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5403,7 +5446,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5420,7 +5463,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5437,7 +5480,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5454,7 +5497,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5471,7 +5514,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5488,7 +5531,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5505,7 +5548,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5522,7 +5565,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5539,7 +5582,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5556,7 +5599,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5573,7 +5616,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5590,7 +5633,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5607,7 +5650,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="8" t="e">
         <f t="shared" ref="B195:B258" si="3">LEFT(A195, FIND(".",A195)-1)</f>
@@ -5624,7 +5667,7 @@
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5641,7 +5684,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5658,7 +5701,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5675,7 +5718,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5692,7 +5735,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5709,7 +5752,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5726,7 +5769,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5743,7 +5786,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5760,7 +5803,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5777,7 +5820,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5794,7 +5837,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5811,7 +5854,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5828,7 +5871,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5845,7 +5888,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5862,7 +5905,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5879,7 +5922,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5896,7 +5939,7 @@
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5913,7 +5956,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5930,7 +5973,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5947,7 +5990,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5964,7 +6007,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5981,7 +6024,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5998,7 +6041,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6015,7 +6058,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6032,7 +6075,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6049,7 +6092,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6066,7 +6109,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6083,7 +6126,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6100,7 +6143,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6117,7 +6160,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6134,7 +6177,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6151,7 +6194,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6168,7 +6211,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6185,7 +6228,7 @@
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6202,7 +6245,7 @@
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6219,7 +6262,7 @@
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6236,7 +6279,7 @@
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6253,7 +6296,7 @@
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6270,7 +6313,7 @@
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6287,7 +6330,7 @@
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6304,7 +6347,7 @@
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6321,7 +6364,7 @@
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6338,7 +6381,7 @@
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6355,7 +6398,7 @@
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6372,7 +6415,7 @@
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6389,7 +6432,7 @@
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6406,7 +6449,7 @@
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6423,7 +6466,7 @@
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6440,7 +6483,7 @@
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6457,7 +6500,7 @@
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6474,7 +6517,7 @@
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6491,7 +6534,7 @@
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6508,7 +6551,7 @@
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6525,7 +6568,7 @@
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6542,7 +6585,7 @@
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6559,7 +6602,7 @@
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6576,7 +6619,7 @@
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6593,7 +6636,7 @@
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6610,7 +6653,7 @@
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6627,7 +6670,7 @@
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6644,7 +6687,7 @@
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6661,7 +6704,7 @@
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6678,7 +6721,7 @@
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6695,7 +6738,7 @@
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="8" t="e">
         <f t="shared" ref="B259:B322" si="4">LEFT(A259, FIND(".",A259)-1)</f>
@@ -6712,7 +6755,7 @@
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6729,7 +6772,7 @@
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6746,7 +6789,7 @@
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6763,7 +6806,7 @@
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6780,7 +6823,7 @@
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6797,7 +6840,7 @@
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6814,7 +6857,7 @@
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6831,7 +6874,7 @@
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6848,7 +6891,7 @@
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6865,7 +6908,7 @@
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6882,7 +6925,7 @@
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6899,7 +6942,7 @@
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6916,7 +6959,7 @@
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6933,7 +6976,7 @@
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6950,7 +6993,7 @@
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6967,7 +7010,7 @@
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6984,7 +7027,7 @@
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7001,7 +7044,7 @@
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7018,7 +7061,7 @@
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7035,7 +7078,7 @@
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7052,7 +7095,7 @@
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7069,7 +7112,7 @@
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7086,7 +7129,7 @@
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7103,7 +7146,7 @@
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7120,7 +7163,7 @@
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7137,7 +7180,7 @@
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7154,7 +7197,7 @@
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7171,7 +7214,7 @@
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7188,7 +7231,7 @@
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7205,7 +7248,7 @@
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7222,7 +7265,7 @@
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7239,7 +7282,7 @@
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7256,7 +7299,7 @@
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7273,7 +7316,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7290,7 +7333,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7307,7 +7350,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7324,7 +7367,7 @@
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7341,7 +7384,7 @@
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7358,7 +7401,7 @@
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7375,7 +7418,7 @@
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7392,7 +7435,7 @@
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7409,7 +7452,7 @@
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7426,7 +7469,7 @@
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7443,7 +7486,7 @@
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7460,7 +7503,7 @@
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7477,7 +7520,7 @@
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7494,7 +7537,7 @@
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7511,7 +7554,7 @@
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7528,7 +7571,7 @@
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7545,7 +7588,7 @@
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7562,7 +7605,7 @@
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7579,7 +7622,7 @@
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7596,7 +7639,7 @@
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7613,7 +7656,7 @@
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7630,7 +7673,7 @@
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7647,7 +7690,7 @@
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7664,7 +7707,7 @@
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7681,7 +7724,7 @@
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7698,7 +7741,7 @@
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7715,7 +7758,7 @@
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7732,7 +7775,7 @@
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7749,7 +7792,7 @@
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7766,7 +7809,7 @@
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7783,7 +7826,7 @@
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="8" t="e">
         <f t="shared" ref="B323:B361" si="5">LEFT(A323, FIND(".",A323)-1)</f>
@@ -7800,7 +7843,7 @@
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7817,7 +7860,7 @@
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7834,7 +7877,7 @@
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7851,7 +7894,7 @@
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7868,7 +7911,7 @@
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7885,7 +7928,7 @@
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7902,7 +7945,7 @@
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7919,7 +7962,7 @@
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7936,7 +7979,7 @@
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7953,7 +7996,7 @@
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7970,7 +8013,7 @@
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7987,7 +8030,7 @@
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8004,7 +8047,7 @@
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8021,7 +8064,7 @@
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8038,7 +8081,7 @@
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8055,7 +8098,7 @@
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8072,7 +8115,7 @@
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8089,7 +8132,7 @@
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8106,7 +8149,7 @@
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8123,7 +8166,7 @@
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8140,7 +8183,7 @@
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8157,7 +8200,7 @@
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8174,7 +8217,7 @@
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8191,7 +8234,7 @@
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8208,7 +8251,7 @@
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8225,7 +8268,7 @@
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8242,7 +8285,7 @@
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8259,7 +8302,7 @@
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8276,7 +8319,7 @@
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8293,7 +8336,7 @@
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8310,7 +8353,7 @@
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8327,7 +8370,7 @@
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8344,7 +8387,7 @@
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8361,7 +8404,7 @@
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8378,7 +8421,7 @@
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8395,7 +8438,7 @@
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8412,7 +8455,7 @@
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8429,7 +8472,7 @@
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8446,7 +8489,7 @@
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6" t="e">
         <f t="shared" ref="B362:B392" si="6">LEFT(A362, FIND(".",A362)-1)</f>
@@ -8463,7 +8506,7 @@
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8480,7 +8523,7 @@
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8497,7 +8540,7 @@
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8514,7 +8557,7 @@
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8531,7 +8574,7 @@
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8548,7 +8591,7 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8565,7 +8608,7 @@
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8582,7 +8625,7 @@
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8599,7 +8642,7 @@
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8616,7 +8659,7 @@
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8633,7 +8676,7 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8650,7 +8693,7 @@
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8667,7 +8710,7 @@
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8684,7 +8727,7 @@
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8701,7 +8744,7 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8718,7 +8761,7 @@
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8735,7 +8778,7 @@
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8752,7 +8795,7 @@
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8769,7 +8812,7 @@
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8786,7 +8829,7 @@
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8803,7 +8846,7 @@
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8820,7 +8863,7 @@
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8837,7 +8880,7 @@
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8854,7 +8897,7 @@
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8871,7 +8914,7 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8888,7 +8931,7 @@
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8905,7 +8948,7 @@
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8922,7 +8965,7 @@
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8939,7 +8982,7 @@
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8956,7 +8999,7 @@
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8973,7 +9016,7 @@
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6" t="e">
         <f t="shared" ref="B393:B443" si="7">LEFT(A393, FIND(".",A393)-1)</f>
@@ -8990,7 +9033,7 @@
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9007,7 +9050,7 @@
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9024,7 +9067,7 @@
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9041,7 +9084,7 @@
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9058,7 +9101,7 @@
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9075,7 +9118,7 @@
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9092,7 +9135,7 @@
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9109,7 +9152,7 @@
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9126,7 +9169,7 @@
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9143,7 +9186,7 @@
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9160,7 +9203,7 @@
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9177,7 +9220,7 @@
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9194,7 +9237,7 @@
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9211,7 +9254,7 @@
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9228,7 +9271,7 @@
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9245,7 +9288,7 @@
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9262,7 +9305,7 @@
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9279,7 +9322,7 @@
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9296,7 +9339,7 @@
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9313,7 +9356,7 @@
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9330,7 +9373,7 @@
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9347,7 +9390,7 @@
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9364,7 +9407,7 @@
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9381,7 +9424,7 @@
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9398,7 +9441,7 @@
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9415,7 +9458,7 @@
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9432,7 +9475,7 @@
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9446,7 +9489,7 @@
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B421" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9460,7 +9503,7 @@
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B422" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9474,7 +9517,7 @@
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9488,7 +9531,7 @@
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9502,7 +9545,7 @@
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B425" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9516,7 +9559,7 @@
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B426" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9530,7 +9573,7 @@
       <c r="L426" s="7"/>
       <c r="M426" s="7"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B427" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9544,7 +9587,7 @@
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B428" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9558,7 +9601,7 @@
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9572,7 +9615,7 @@
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9586,7 +9629,7 @@
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9600,7 +9643,7 @@
       <c r="L431" s="7"/>
       <c r="M431" s="7"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9614,7 +9657,7 @@
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
     </row>
-    <row r="433" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9628,7 +9671,7 @@
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
     </row>
-    <row r="434" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9642,7 +9685,7 @@
       <c r="L434" s="7"/>
       <c r="M434" s="7"/>
     </row>
-    <row r="435" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9656,7 +9699,7 @@
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
     </row>
-    <row r="436" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9670,7 +9713,7 @@
       <c r="L436" s="7"/>
       <c r="M436" s="7"/>
     </row>
-    <row r="437" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9684,7 +9727,7 @@
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
     </row>
-    <row r="438" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9698,7 +9741,7 @@
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
     </row>
-    <row r="439" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B439" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9712,7 +9755,7 @@
       <c r="L439" s="7"/>
       <c r="M439" s="7"/>
     </row>
-    <row r="440" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9726,7 +9769,7 @@
       <c r="L440" s="7"/>
       <c r="M440" s="7"/>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9740,7 +9783,7 @@
       <c r="L441" s="7"/>
       <c r="M441" s="7"/>
     </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B442" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9751,7 +9794,7 @@
       <c r="L442" s="7"/>
       <c r="M442" s="7"/>
     </row>
-    <row r="443" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9770,8 +9813,15 @@
       <c r="M444" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CA443" xr:uid="{1058BA28-F955-4061-BB80-D8E922C7B585}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="yb"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -9780,7 +9830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9950,7 +10000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10067,7 +10117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CABC6FF-D14C-4DA1-B0A7-C21B2611E9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EAA67B-2355-404A-B6D4-3C6F9ECC79F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -658,7 +656,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,7 +672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,7 +998,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1198,7 +1196,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1288,7 +1286,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
@@ -1449,7 +1447,7 @@
       </c>
       <c r="G2" s="10">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!L:L)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>8</v>
@@ -1477,7 +1475,7 @@
       </c>
       <c r="G3" s="14">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A3,'Sprint Backlog'!L:L)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>8</v>
@@ -1505,7 +1503,7 @@
       </c>
       <c r="G4" s="10">
         <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A4,'Sprint Backlog'!L:L)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>8</v>
@@ -1748,15 +1746,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" hidden="1" customWidth="1"/>
@@ -1875,7 +1872,7 @@
       <c r="BZ1"/>
       <c r="CA1"/>
     </row>
-    <row r="2" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1910,12 +1907,14 @@
       <c r="K2" s="10">
         <v>1</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="10">
+        <v>1</v>
+      </c>
       <c r="M2" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1.4</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1.6</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1.7</v>
       </c>
@@ -2158,12 +2157,14 @@
       <c r="K8" s="22">
         <v>2</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
       <c r="M8" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>1.8</v>
       </c>
@@ -2198,12 +2199,14 @@
       <c r="K9" s="14">
         <v>2</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14">
+        <v>3</v>
+      </c>
       <c r="M9" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.9</v>
       </c>
@@ -2238,12 +2241,14 @@
       <c r="K10" s="10">
         <v>2</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10">
+        <v>2</v>
+      </c>
       <c r="M10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2.1</v>
       </c>
@@ -2278,12 +2283,14 @@
       <c r="K11" s="14">
         <v>1</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
       <c r="M11" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2318,9 +2325,11 @@
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
       <c r="M12" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:79" ht="45" x14ac:dyDescent="0.25">
@@ -2365,7 +2374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:79" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2.4</v>
       </c>
@@ -2400,12 +2409,14 @@
       <c r="K14" s="10">
         <v>2</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10">
+        <v>2</v>
+      </c>
       <c r="M14" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2.5</v>
       </c>
@@ -2442,10 +2453,10 @@
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:79" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3.1</v>
       </c>
@@ -2482,10 +2493,10 @@
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>3.2</v>
       </c>
@@ -2522,7 +2533,7 @@
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -2562,10 +2573,10 @@
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>3.4</v>
       </c>
@@ -2600,12 +2611,14 @@
       <c r="K19" s="14">
         <v>4</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="14">
+        <v>4</v>
+      </c>
       <c r="M19" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>3.5</v>
       </c>
@@ -2645,7 +2658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="str">
         <f>"1.10"</f>
         <v>1.10</v>
@@ -2686,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2.6</v>
       </c>
@@ -2726,7 +2739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2743,7 +2756,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2760,7 +2773,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2777,7 +2790,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2794,7 +2807,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2811,7 +2824,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2828,7 +2841,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2845,7 +2858,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2862,7 +2875,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2879,7 +2892,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2896,7 +2909,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2913,7 +2926,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2930,7 +2943,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2947,7 +2960,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2964,7 +2977,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2981,7 +2994,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="e">
         <f t="shared" si="0"/>
@@ -2998,7 +3011,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3015,7 +3028,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3032,7 +3045,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3049,7 +3062,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3066,7 +3079,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3083,7 +3096,7 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3100,7 +3113,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3117,7 +3130,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3134,7 +3147,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3151,7 +3164,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3168,7 +3181,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3185,7 +3198,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3202,7 +3215,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3219,7 +3232,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3236,7 +3249,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3253,7 +3266,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3270,7 +3283,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3287,7 +3300,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3304,7 +3317,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3321,7 +3334,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3338,7 +3351,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3355,7 +3368,7 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3372,7 +3385,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3389,7 +3402,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3406,7 +3419,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3423,7 +3436,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3440,7 +3453,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3457,7 +3470,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3474,7 +3487,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8" t="e">
         <f t="shared" ref="B67:B130" si="1">LEFT(A67, FIND(".",A67)-1)</f>
@@ -3491,7 +3504,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3508,7 +3521,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3525,7 +3538,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3542,7 +3555,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3559,7 +3572,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3576,7 +3589,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3593,7 +3606,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3610,7 +3623,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3627,7 +3640,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3644,7 +3657,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3661,7 +3674,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3678,7 +3691,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3695,7 +3708,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3712,7 +3725,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3729,7 +3742,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3746,7 +3759,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3763,7 +3776,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3780,7 +3793,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3797,7 +3810,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3814,7 +3827,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3831,7 +3844,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3848,7 +3861,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3865,7 +3878,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3882,7 +3895,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3899,7 +3912,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3916,7 +3929,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3933,7 +3946,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3950,7 +3963,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3967,7 +3980,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3984,7 +3997,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4001,7 +4014,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4018,7 +4031,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4035,7 +4048,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4052,7 +4065,7 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4069,7 +4082,7 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4086,7 +4099,7 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4103,7 +4116,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4120,7 +4133,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4137,7 +4150,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4154,7 +4167,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4171,7 +4184,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4188,7 +4201,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4205,7 +4218,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4222,7 +4235,7 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4239,7 +4252,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4256,7 +4269,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4273,7 +4286,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4290,7 +4303,7 @@
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4307,7 +4320,7 @@
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4324,7 +4337,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4341,7 +4354,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4358,7 +4371,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4375,7 +4388,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4392,7 +4405,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4409,7 +4422,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4426,7 +4439,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4443,7 +4456,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4460,7 +4473,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4477,7 +4490,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4494,7 +4507,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4511,7 +4524,7 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4528,7 +4541,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4545,7 +4558,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4562,7 +4575,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="8" t="e">
         <f t="shared" ref="B131:B194" si="2">LEFT(A131, FIND(".",A131)-1)</f>
@@ -4579,7 +4592,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4596,7 +4609,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4613,7 +4626,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4630,7 +4643,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4647,7 +4660,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4664,7 +4677,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4681,7 +4694,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4698,7 +4711,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4715,7 +4728,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4732,7 +4745,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4749,7 +4762,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4766,7 +4779,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4783,7 +4796,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4800,7 +4813,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4817,7 +4830,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4834,7 +4847,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4851,7 +4864,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4868,7 +4881,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4885,7 +4898,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4902,7 +4915,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4919,7 +4932,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4936,7 +4949,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4953,7 +4966,7 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4970,7 +4983,7 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4987,7 +5000,7 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5004,7 +5017,7 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5021,7 +5034,7 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5038,7 +5051,7 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5055,7 +5068,7 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5072,7 +5085,7 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5089,7 +5102,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5106,7 +5119,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5123,7 +5136,7 @@
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5140,7 +5153,7 @@
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5157,7 +5170,7 @@
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5174,7 +5187,7 @@
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5191,7 +5204,7 @@
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5208,7 +5221,7 @@
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5225,7 +5238,7 @@
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5242,7 +5255,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5259,7 +5272,7 @@
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5276,7 +5289,7 @@
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5293,7 +5306,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5310,7 +5323,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5327,7 +5340,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5344,7 +5357,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5361,7 +5374,7 @@
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5378,7 +5391,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5395,7 +5408,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5412,7 +5425,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5429,7 +5442,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5446,7 +5459,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5463,7 +5476,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5480,7 +5493,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5497,7 +5510,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5514,7 +5527,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5531,7 +5544,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5548,7 +5561,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5565,7 +5578,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5582,7 +5595,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5599,7 +5612,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5616,7 +5629,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5633,7 +5646,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5650,7 +5663,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="8" t="e">
         <f t="shared" ref="B195:B258" si="3">LEFT(A195, FIND(".",A195)-1)</f>
@@ -5667,7 +5680,7 @@
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5684,7 +5697,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5701,7 +5714,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5718,7 +5731,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5735,7 +5748,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5752,7 +5765,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5769,7 +5782,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5786,7 +5799,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5803,7 +5816,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5820,7 +5833,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5837,7 +5850,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5854,7 +5867,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5871,7 +5884,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5888,7 +5901,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5905,7 +5918,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5922,7 +5935,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5939,7 +5952,7 @@
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
     </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5956,7 +5969,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5973,7 +5986,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5990,7 +6003,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6007,7 +6020,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6024,7 +6037,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6041,7 +6054,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6058,7 +6071,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6075,7 +6088,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6092,7 +6105,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6109,7 +6122,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6126,7 +6139,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6143,7 +6156,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6160,7 +6173,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6177,7 +6190,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6194,7 +6207,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6211,7 +6224,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6228,7 +6241,7 @@
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6245,7 +6258,7 @@
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6262,7 +6275,7 @@
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6279,7 +6292,7 @@
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6296,7 +6309,7 @@
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6313,7 +6326,7 @@
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6330,7 +6343,7 @@
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6347,7 +6360,7 @@
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6364,7 +6377,7 @@
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6381,7 +6394,7 @@
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6398,7 +6411,7 @@
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6415,7 +6428,7 @@
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6432,7 +6445,7 @@
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6449,7 +6462,7 @@
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
     </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6466,7 +6479,7 @@
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
     </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6483,7 +6496,7 @@
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
     </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6500,7 +6513,7 @@
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6517,7 +6530,7 @@
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6534,7 +6547,7 @@
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6551,7 +6564,7 @@
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6568,7 +6581,7 @@
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6585,7 +6598,7 @@
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6602,7 +6615,7 @@
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
     </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6619,7 +6632,7 @@
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
     </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6636,7 +6649,7 @@
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
     </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6653,7 +6666,7 @@
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
     </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6670,7 +6683,7 @@
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
     </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6687,7 +6700,7 @@
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
     </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6704,7 +6717,7 @@
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6721,7 +6734,7 @@
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6738,7 +6751,7 @@
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="8" t="e">
         <f t="shared" ref="B259:B322" si="4">LEFT(A259, FIND(".",A259)-1)</f>
@@ -6755,7 +6768,7 @@
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6772,7 +6785,7 @@
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6789,7 +6802,7 @@
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6806,7 +6819,7 @@
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6823,7 +6836,7 @@
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6840,7 +6853,7 @@
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6857,7 +6870,7 @@
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6874,7 +6887,7 @@
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6891,7 +6904,7 @@
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6908,7 +6921,7 @@
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6925,7 +6938,7 @@
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6942,7 +6955,7 @@
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6959,7 +6972,7 @@
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6976,7 +6989,7 @@
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="8" t="e">
         <f t="shared" si="4"/>
@@ -6993,7 +7006,7 @@
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7010,7 +7023,7 @@
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7027,7 +7040,7 @@
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7044,7 +7057,7 @@
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7061,7 +7074,7 @@
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7078,7 +7091,7 @@
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7095,7 +7108,7 @@
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7112,7 +7125,7 @@
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7129,7 +7142,7 @@
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7146,7 +7159,7 @@
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7163,7 +7176,7 @@
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7180,7 +7193,7 @@
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7197,7 +7210,7 @@
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7214,7 +7227,7 @@
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7231,7 +7244,7 @@
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
     </row>
-    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7248,7 +7261,7 @@
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7265,7 +7278,7 @@
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7282,7 +7295,7 @@
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7299,7 +7312,7 @@
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7316,7 +7329,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7333,7 +7346,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7350,7 +7363,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7367,7 +7380,7 @@
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7384,7 +7397,7 @@
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7401,7 +7414,7 @@
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7418,7 +7431,7 @@
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7435,7 +7448,7 @@
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
     </row>
-    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7452,7 +7465,7 @@
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
     </row>
-    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7469,7 +7482,7 @@
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7486,7 +7499,7 @@
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
     </row>
-    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7503,7 +7516,7 @@
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7520,7 +7533,7 @@
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7537,7 +7550,7 @@
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
     </row>
-    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7554,7 +7567,7 @@
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7571,7 +7584,7 @@
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7588,7 +7601,7 @@
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7605,7 +7618,7 @@
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7622,7 +7635,7 @@
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7639,7 +7652,7 @@
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7656,7 +7669,7 @@
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7673,7 +7686,7 @@
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7690,7 +7703,7 @@
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
     </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7707,7 +7720,7 @@
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7724,7 +7737,7 @@
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7741,7 +7754,7 @@
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7758,7 +7771,7 @@
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7775,7 +7788,7 @@
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7792,7 +7805,7 @@
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7809,7 +7822,7 @@
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7826,7 +7839,7 @@
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="8" t="e">
         <f t="shared" ref="B323:B361" si="5">LEFT(A323, FIND(".",A323)-1)</f>
@@ -7843,7 +7856,7 @@
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7860,7 +7873,7 @@
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7877,7 +7890,7 @@
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7894,7 +7907,7 @@
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7911,7 +7924,7 @@
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7928,7 +7941,7 @@
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7945,7 +7958,7 @@
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7962,7 +7975,7 @@
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7979,7 +7992,7 @@
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="8" t="e">
         <f t="shared" si="5"/>
@@ -7996,7 +8009,7 @@
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8013,7 +8026,7 @@
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8030,7 +8043,7 @@
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8047,7 +8060,7 @@
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8064,7 +8077,7 @@
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8081,7 +8094,7 @@
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8098,7 +8111,7 @@
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8115,7 +8128,7 @@
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8132,7 +8145,7 @@
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8149,7 +8162,7 @@
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8166,7 +8179,7 @@
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8183,7 +8196,7 @@
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8200,7 +8213,7 @@
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8217,7 +8230,7 @@
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8234,7 +8247,7 @@
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8251,7 +8264,7 @@
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8268,7 +8281,7 @@
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8285,7 +8298,7 @@
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8302,7 +8315,7 @@
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8319,7 +8332,7 @@
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8336,7 +8349,7 @@
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8353,7 +8366,7 @@
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8370,7 +8383,7 @@
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8387,7 +8400,7 @@
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8404,7 +8417,7 @@
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8421,7 +8434,7 @@
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8438,7 +8451,7 @@
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8455,7 +8468,7 @@
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8472,7 +8485,7 @@
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8489,7 +8502,7 @@
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6" t="e">
         <f t="shared" ref="B362:B392" si="6">LEFT(A362, FIND(".",A362)-1)</f>
@@ -8506,7 +8519,7 @@
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8523,7 +8536,7 @@
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8540,7 +8553,7 @@
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8557,7 +8570,7 @@
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8574,7 +8587,7 @@
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8591,7 +8604,7 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8608,7 +8621,7 @@
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8625,7 +8638,7 @@
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8642,7 +8655,7 @@
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8659,7 +8672,7 @@
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8676,7 +8689,7 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8693,7 +8706,7 @@
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8710,7 +8723,7 @@
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8727,7 +8740,7 @@
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8744,7 +8757,7 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8761,7 +8774,7 @@
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8778,7 +8791,7 @@
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8795,7 +8808,7 @@
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8812,7 +8825,7 @@
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8829,7 +8842,7 @@
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8846,7 +8859,7 @@
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8863,7 +8876,7 @@
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8880,7 +8893,7 @@
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
     </row>
-    <row r="385" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8897,7 +8910,7 @@
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8914,7 +8927,7 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
     </row>
-    <row r="387" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8931,7 +8944,7 @@
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8948,7 +8961,7 @@
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8965,7 +8978,7 @@
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
     </row>
-    <row r="390" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8982,7 +8995,7 @@
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
     </row>
-    <row r="391" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8999,7 +9012,7 @@
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
     </row>
-    <row r="392" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9016,7 +9029,7 @@
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
     </row>
-    <row r="393" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6" t="e">
         <f t="shared" ref="B393:B443" si="7">LEFT(A393, FIND(".",A393)-1)</f>
@@ -9033,7 +9046,7 @@
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
     </row>
-    <row r="394" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9050,7 +9063,7 @@
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
     </row>
-    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9067,7 +9080,7 @@
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
     </row>
-    <row r="396" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9084,7 +9097,7 @@
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
     </row>
-    <row r="397" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9101,7 +9114,7 @@
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
     </row>
-    <row r="398" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9118,7 +9131,7 @@
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
     </row>
-    <row r="399" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9135,7 +9148,7 @@
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
     </row>
-    <row r="400" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9152,7 +9165,7 @@
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
     </row>
-    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9169,7 +9182,7 @@
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
     </row>
-    <row r="402" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9186,7 +9199,7 @@
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
     </row>
-    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9203,7 +9216,7 @@
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
     </row>
-    <row r="404" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9220,7 +9233,7 @@
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
     </row>
-    <row r="405" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9237,7 +9250,7 @@
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
     </row>
-    <row r="406" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9254,7 +9267,7 @@
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
     </row>
-    <row r="407" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9271,7 +9284,7 @@
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
     </row>
-    <row r="408" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9288,7 +9301,7 @@
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
     </row>
-    <row r="409" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9305,7 +9318,7 @@
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9322,7 +9335,7 @@
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
     </row>
-    <row r="411" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9339,7 +9352,7 @@
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9356,7 +9369,7 @@
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9373,7 +9386,7 @@
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
     </row>
-    <row r="414" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9390,7 +9403,7 @@
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
     </row>
-    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9407,7 +9420,7 @@
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
     </row>
-    <row r="416" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9424,7 +9437,7 @@
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
     </row>
-    <row r="417" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9441,7 +9454,7 @@
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
     </row>
-    <row r="418" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9458,7 +9471,7 @@
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
     </row>
-    <row r="419" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9475,7 +9488,7 @@
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
     </row>
-    <row r="420" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B420" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9489,7 +9502,7 @@
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
     </row>
-    <row r="421" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B421" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9503,7 +9516,7 @@
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B422" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9517,7 +9530,7 @@
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B423" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9531,7 +9544,7 @@
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B424" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9545,7 +9558,7 @@
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B425" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9559,7 +9572,7 @@
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B426" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9573,7 +9586,7 @@
       <c r="L426" s="7"/>
       <c r="M426" s="7"/>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B427" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9587,7 +9600,7 @@
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B428" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9601,7 +9614,7 @@
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
     </row>
-    <row r="429" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B429" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9615,7 +9628,7 @@
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
     </row>
-    <row r="430" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B430" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9629,7 +9642,7 @@
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
     </row>
-    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B431" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9643,7 +9656,7 @@
       <c r="L431" s="7"/>
       <c r="M431" s="7"/>
     </row>
-    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B432" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9657,7 +9670,7 @@
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
     </row>
-    <row r="433" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B433" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9671,7 +9684,7 @@
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
     </row>
-    <row r="434" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B434" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9685,7 +9698,7 @@
       <c r="L434" s="7"/>
       <c r="M434" s="7"/>
     </row>
-    <row r="435" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B435" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9699,7 +9712,7 @@
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
     </row>
-    <row r="436" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B436" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9713,7 +9726,7 @@
       <c r="L436" s="7"/>
       <c r="M436" s="7"/>
     </row>
-    <row r="437" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B437" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9727,7 +9740,7 @@
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
     </row>
-    <row r="438" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B438" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9741,7 +9754,7 @@
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
     </row>
-    <row r="439" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B439" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9755,7 +9768,7 @@
       <c r="L439" s="7"/>
       <c r="M439" s="7"/>
     </row>
-    <row r="440" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B440" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9769,7 +9782,7 @@
       <c r="L440" s="7"/>
       <c r="M440" s="7"/>
     </row>
-    <row r="441" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B441" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9783,7 +9796,7 @@
       <c r="L441" s="7"/>
       <c r="M441" s="7"/>
     </row>
-    <row r="442" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B442" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9794,7 +9807,7 @@
       <c r="L442" s="7"/>
       <c r="M442" s="7"/>
     </row>
-    <row r="443" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B443" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9813,13 +9826,7 @@
       <c r="M444" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CA443" xr:uid="{1058BA28-F955-4061-BB80-D8E922C7B585}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="yb"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:CA443" xr:uid="{1058BA28-F955-4061-BB80-D8E922C7B585}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Status</formula1>
@@ -9837,7 +9844,7 @@
       <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -10007,7 +10014,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
@@ -10124,7 +10131,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre Moeri\Google Drive\BFH\20FS\SEaD\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EAA67B-2355-404A-B6D4-3C6F9ECC79F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AD918-1BAE-4F2F-AAF3-6908A98EBEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
     <sheet name="Available Ressources" sheetId="5" r:id="rId2"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId3"/>
-    <sheet name="Sprint Backlog" sheetId="2" r:id="rId4"/>
-    <sheet name="Review" sheetId="7" r:id="rId5"/>
-    <sheet name="BurndownChart" sheetId="4" r:id="rId6"/>
-    <sheet name="Status" sheetId="6" r:id="rId7"/>
+    <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprint 2 Backlog" sheetId="8" r:id="rId5"/>
+    <sheet name="Review" sheetId="7" r:id="rId6"/>
+    <sheet name="BurndownChart" sheetId="4" r:id="rId7"/>
+    <sheet name="Status" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint Backlog'!$A$1:$CA$443</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 1 Backlog'!$A$1:$CA$443</definedName>
     <definedName name="Status">Status!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -470,6 +473,180 @@
   </si>
   <si>
     <t>Product Owner</t>
+  </si>
+  <si>
+    <t>HealhtVisitor Model</t>
+  </si>
+  <si>
+    <t>Its possible to add notifications to a HealthVisitor</t>
+  </si>
+  <si>
+    <t>HealthVisitorManager</t>
+  </si>
+  <si>
+    <t>Add Notifications to HaealthClients on defined events</t>
+  </si>
+  <si>
+    <t>Trigger Notification events</t>
+  </si>
+  <si>
+    <t>Dashboard: View</t>
+  </si>
+  <si>
+    <t>Show dummy notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View: ShowNotifications </t>
+  </si>
+  <si>
+    <t>Protocolmanager, PersistenceManager</t>
+  </si>
+  <si>
+    <t>Changes of protocols in ProtocolManager are stored in database</t>
+  </si>
+  <si>
+    <t>Persistence:  UpdateProtocol</t>
+  </si>
+  <si>
+    <t>ProtocolManager</t>
+  </si>
+  <si>
+    <t>Methods to update an existsting protocol is available on ProtocolManager</t>
+  </si>
+  <si>
+    <t>Manager: UpdateProtocol</t>
+  </si>
+  <si>
+    <t>Protocol: View, Presenter</t>
+  </si>
+  <si>
+    <t>Ist possible to open an existing protocol in an edit view</t>
+  </si>
+  <si>
+    <t>View: EditProtcol</t>
+  </si>
+  <si>
+    <t>Protocolmanager</t>
+  </si>
+  <si>
+    <t>Implement filters on data layer for protocols</t>
+  </si>
+  <si>
+    <t>Manager:  ProtocolFilter</t>
+  </si>
+  <si>
+    <t>HealthClient: View, Presenter</t>
+  </si>
+  <si>
+    <t>Create view with input data to filter the protocol list</t>
+  </si>
+  <si>
+    <t>View: FilterProtocols</t>
+  </si>
+  <si>
+    <t>Its possible to load protocols per client</t>
+  </si>
+  <si>
+    <t>Manager: LoadProtocols per Client</t>
+  </si>
+  <si>
+    <t>Protocols of a given HealthClients are displayed on his profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View: ProtocolHistory </t>
+  </si>
+  <si>
+    <t>Views with detailed data of a protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View: ProtocolDetail </t>
+  </si>
+  <si>
+    <t>View with all Protocols of specific HealthClient</t>
+  </si>
+  <si>
+    <t>View: ProtocolList</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Do task08</t>
+  </si>
+  <si>
+    <t>Document database connection</t>
+  </si>
+  <si>
+    <t>There is a solution to save and load protocols from the database</t>
+  </si>
+  <si>
+    <t>Initialize Persistencemanager</t>
+  </si>
+  <si>
+    <t>View with form to create a new protocol</t>
+  </si>
+  <si>
+    <t>View: CreateProtocol</t>
+  </si>
+  <si>
+    <t>Ist possible to view a single protocol</t>
+  </si>
+  <si>
+    <t>View: ShowProtocol</t>
+  </si>
+  <si>
+    <t>PersistenceManager</t>
+  </si>
+  <si>
+    <t>Implement loadProtocols from database and replace mock</t>
+  </si>
+  <si>
+    <t>Persistence: getProtocols</t>
+  </si>
+  <si>
+    <t>Create mock method to get Protocols from database</t>
+  </si>
+  <si>
+    <t>Mock Database getProtocols</t>
+  </si>
+  <si>
+    <t>Initialize Protocolmanager with data from PersistenceManager</t>
+  </si>
+  <si>
+    <t>Initialize Protocolmanager</t>
+  </si>
+  <si>
+    <t>Create a Test Set of at least  3 different Protocols per HealthClient</t>
+  </si>
+  <si>
+    <t>Create Protocol Test Set</t>
+  </si>
+  <si>
+    <t>Protocol: Model</t>
+  </si>
+  <si>
+    <t>Model for Protocol</t>
+  </si>
+  <si>
+    <t>Protocol Model</t>
+  </si>
+  <si>
+    <t>Implement loadAppointments from database and replace mock</t>
+  </si>
+  <si>
+    <t>Persistence: getAppointments</t>
+  </si>
+  <si>
+    <t>PersistenceManager: Test Data</t>
+  </si>
+  <si>
+    <t>Create mock method to get Appointments from database</t>
+  </si>
+  <si>
+    <t>Mock Database getAppointments</t>
+  </si>
+  <si>
+    <t>Add Notification-funtionality to HealthVisitor</t>
   </si>
 </sst>
 </file>
@@ -539,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -562,11 +739,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -654,9 +842,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -998,7 +1189,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1196,7 +1387,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1286,7 +1477,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
@@ -1442,11 +1633,11 @@
         <v>16</v>
       </c>
       <c r="F2" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A2,'Sprint 1 Backlog'!K:K)</f>
         <v>16</v>
       </c>
       <c r="G2" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A2,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A2,'Sprint 1 Backlog'!L:L)</f>
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -1470,11 +1661,11 @@
         <v>12</v>
       </c>
       <c r="F3" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A3,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A3,'Sprint 1 Backlog'!K:K)</f>
         <v>11</v>
       </c>
       <c r="G3" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A3,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A3,'Sprint 1 Backlog'!L:L)</f>
         <v>5</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -1498,11 +1689,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A4,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A4,'Sprint 1 Backlog'!K:K)</f>
         <v>11</v>
       </c>
       <c r="G4" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A4,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A4,'Sprint 1 Backlog'!L:L)</f>
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -1526,11 +1717,11 @@
         <v>16</v>
       </c>
       <c r="F5" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A5,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A5,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G5" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A5,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A5,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -1554,11 +1745,11 @@
         <v>8</v>
       </c>
       <c r="F6" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A6,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A6,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G6" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A6,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A6,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -1582,11 +1773,11 @@
         <v>16</v>
       </c>
       <c r="F7" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A7,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A7,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G7" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A7,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A7,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -1610,11 +1801,11 @@
         <v>16</v>
       </c>
       <c r="F8" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A8,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A8,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G8" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A8,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A8,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1638,11 +1829,11 @@
         <v>12</v>
       </c>
       <c r="F9" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A9,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A9,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A9,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A9,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -1666,11 +1857,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A10,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A10,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G10" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A10,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A10,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -1694,11 +1885,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A11,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A11,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G11" s="14">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A11,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A11,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -1722,11 +1913,11 @@
         <v>8</v>
       </c>
       <c r="F12" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A12,'Sprint Backlog'!K:K)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A12,'Sprint 1 Backlog'!K:K)</f>
         <v>0</v>
       </c>
       <c r="G12" s="10">
-        <f>SUMIF('Sprint Backlog'!B:B,'Product Backlog'!A12,'Sprint Backlog'!L:L)</f>
+        <f>SUMIF('Sprint 1 Backlog'!B:B,'Product Backlog'!A12,'Sprint 1 Backlog'!L:L)</f>
         <v>0</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1748,12 +1939,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CA444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" hidden="1" customWidth="1"/>
@@ -9833,10 +10024,993 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>4.8</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="10">
+        <v>4</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="10">
+        <v>4</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="10">
+        <v>4</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{06F441D2-3BEA-4D5B-BF28-5AD61F868919}">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -9844,7 +11018,7 @@
       <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -9901,11 +11075,11 @@
         <v>8</v>
       </c>
       <c r="E3" s="16">
-        <f>SUMIF('Sprint Backlog'!G:G,Review!$C3,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!G:G,Review!$C3,'Sprint 1 Backlog'!$J:$J)</f>
         <v>8</v>
       </c>
       <c r="F3" s="16">
-        <f>SUMIF('Sprint Backlog'!H:H,Review!$C3,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!H:H,Review!$C3,'Sprint 1 Backlog'!$J:$J)</f>
         <v>8</v>
       </c>
     </row>
@@ -9924,11 +11098,11 @@
         <v>8</v>
       </c>
       <c r="E4" s="17">
-        <f>SUMIF('Sprint Backlog'!G:G,Review!$C4,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!G:G,Review!$C4,'Sprint 1 Backlog'!$J:$J)</f>
         <v>5</v>
       </c>
       <c r="F4" s="17">
-        <f>SUMIF('Sprint Backlog'!H:H,Review!$C4,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!H:H,Review!$C4,'Sprint 1 Backlog'!$J:$J)</f>
         <v>9</v>
       </c>
     </row>
@@ -9947,11 +11121,11 @@
         <v>8</v>
       </c>
       <c r="E5" s="16">
-        <f>SUMIF('Sprint Backlog'!G:G,Review!$C5,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!G:G,Review!$C5,'Sprint 1 Backlog'!$J:$J)</f>
         <v>8</v>
       </c>
       <c r="F5" s="16">
-        <f>SUMIF('Sprint Backlog'!H:H,Review!$C5,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!H:H,Review!$C5,'Sprint 1 Backlog'!$J:$J)</f>
         <v>8</v>
       </c>
     </row>
@@ -9970,11 +11144,11 @@
         <v>8</v>
       </c>
       <c r="E6" s="17">
-        <f>SUMIF('Sprint Backlog'!G:G,Review!$C6,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!G:G,Review!$C6,'Sprint 1 Backlog'!$J:$J)</f>
         <v>8</v>
       </c>
       <c r="F6" s="17">
-        <f>SUMIF('Sprint Backlog'!H:H,Review!$C6,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!H:H,Review!$C6,'Sprint 1 Backlog'!$J:$J)</f>
         <v>8</v>
       </c>
     </row>
@@ -9993,11 +11167,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="16">
-        <f>SUMIF('Sprint Backlog'!G:G,Review!$C7,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!G:G,Review!$C7,'Sprint 1 Backlog'!$J:$J)</f>
         <v>9</v>
       </c>
       <c r="F7" s="16">
-        <f>SUMIF('Sprint Backlog'!H:H,Review!$C7,'Sprint Backlog'!$J:$J)</f>
+        <f>SUMIF('Sprint 1 Backlog'!H:H,Review!$C7,'Sprint 1 Backlog'!$J:$J)</f>
         <v>5</v>
       </c>
     </row>
@@ -10006,7 +11180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BF3"/>
   <sheetViews>
@@ -10014,7 +11188,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
@@ -10123,7 +11297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -10131,7 +11305,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AD918-1BAE-4F2F-AAF3-6908A98EBEE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA044253-BC0F-4372-B8EB-D402FB7A5A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>Add Notification-funtionality to HealthVisitor</t>
+  </si>
+  <si>
+    <t>Update classdiagram</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10030,10 +10033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10282,8 +10285,12 @@
       <c r="E7" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>7</v>
       </c>
@@ -10314,8 +10321,12 @@
       <c r="E8" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>5</v>
       </c>
@@ -10344,8 +10355,12 @@
       <c r="E9" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
@@ -10374,8 +10389,12 @@
       <c r="E10" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>5</v>
       </c>
@@ -10388,7 +10407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4.4000000000000004</v>
       </c>
@@ -10402,10 +10421,14 @@
         <v>187</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
@@ -10434,8 +10457,12 @@
       <c r="E12" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
@@ -10464,8 +10491,12 @@
       <c r="E13" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>5</v>
       </c>
@@ -10494,8 +10525,12 @@
       <c r="E14" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>6</v>
       </c>
@@ -10509,7 +10544,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="8">
         <v>4.8</v>
       </c>
       <c r="B15" s="8">
@@ -10524,8 +10559,12 @@
       <c r="E15" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>5</v>
       </c>
@@ -10554,8 +10593,12 @@
       <c r="E16" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
@@ -10584,8 +10627,12 @@
       <c r="E17" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>6</v>
       </c>
@@ -10598,7 +10645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5.2</v>
       </c>
@@ -10614,8 +10661,12 @@
       <c r="E18" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>6</v>
       </c>
@@ -10644,8 +10695,12 @@
       <c r="E19" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>6</v>
       </c>
@@ -10674,8 +10729,12 @@
       <c r="E20" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H20" s="10" t="s">
         <v>6</v>
       </c>
@@ -10688,7 +10747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>6.1</v>
       </c>
@@ -10704,8 +10763,12 @@
       <c r="E21" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H21" s="10" t="s">
         <v>6</v>
       </c>
@@ -10718,7 +10781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>6.2</v>
       </c>
@@ -10734,8 +10797,12 @@
       <c r="E22" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H22" s="10" t="s">
         <v>6</v>
       </c>
@@ -10764,8 +10831,12 @@
       <c r="E23" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="10" t="s">
         <v>7</v>
       </c>
@@ -10778,7 +10849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>8.1999999999999993</v>
       </c>
@@ -10794,8 +10865,12 @@
       <c r="E24" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="H24" s="10" t="s">
         <v>7</v>
       </c>
@@ -10808,7 +10883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>8.3000000000000007</v>
       </c>
@@ -10824,8 +10899,12 @@
       <c r="E25" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="H25" s="10" t="s">
         <v>7</v>
       </c>
@@ -10868,7 +10947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>7.2</v>
       </c>
@@ -10898,7 +10977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>7.3</v>
       </c>
@@ -10933,80 +11012,37 @@
       <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="F29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2</v>
+      </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8">
-        <v>2</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8">
-        <v>2</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L32" xr:uid="{06F441D2-3BEA-4D5B-BF28-5AD61F868919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L29" xr:uid="{06F441D2-3BEA-4D5B-BF28-5AD61F868919}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA044253-BC0F-4372-B8EB-D402FB7A5A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671A58E-CC44-4362-ACB8-8FF5F1AF72C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10035,8 +10035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10192,9 +10192,11 @@
       <c r="J4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
       <c r="L4" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -10333,10 +10335,14 @@
       <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
       <c r="L8" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10367,10 +10373,14 @@
       <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
       <c r="L9" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10401,10 +10411,14 @@
       <c r="I10" s="10">
         <v>3</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="10">
+        <v>2</v>
+      </c>
       <c r="L10" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -10435,10 +10449,14 @@
       <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="10">
+        <v>2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2</v>
+      </c>
       <c r="L11" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10503,10 +10521,14 @@
       <c r="I13" s="10">
         <v>2</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
       <c r="L13" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11029,10 +11051,14 @@
       <c r="I29" s="10">
         <v>2</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="J29" s="10">
+        <v>2</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2</v>
+      </c>
       <c r="L29" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671A58E-CC44-4362-ACB8-8FF5F1AF72C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2C1E9-936F-4BE9-B55F-0E57FFBAE7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10035,8 +10035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10049,6 +10049,7 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10120,9 +10121,11 @@
       <c r="J2" s="10">
         <v>1</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
       <c r="L2" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10156,9 +10159,11 @@
       <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
       <c r="L3" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10230,9 +10235,11 @@
       <c r="J5" s="10">
         <v>4</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="10">
+        <v>4</v>
+      </c>
       <c r="L5" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -10266,9 +10273,11 @@
       <c r="J6" s="10">
         <v>2</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10">
+        <v>2</v>
+      </c>
       <c r="L6" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10302,9 +10311,11 @@
       <c r="J7" s="10">
         <v>2</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="10">
+        <v>2</v>
+      </c>
       <c r="L7" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10487,10 +10498,14 @@
       <c r="I12" s="10">
         <v>3</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="10">
+        <v>2</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
       <c r="L12" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10559,10 +10574,14 @@
       <c r="I14" s="10">
         <v>4</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="J14" s="10">
+        <v>4</v>
+      </c>
+      <c r="K14" s="10">
+        <v>4</v>
+      </c>
       <c r="L14" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10593,10 +10612,14 @@
       <c r="I15" s="10">
         <v>4</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="J15" s="10">
+        <v>4</v>
+      </c>
+      <c r="K15" s="10">
+        <v>4</v>
+      </c>
       <c r="L15" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10627,10 +10650,14 @@
       <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="J16" s="10">
+        <v>2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>2</v>
+      </c>
       <c r="L16" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10661,10 +10688,12 @@
       <c r="I17" s="10">
         <v>2</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10">
+        <v>2</v>
+      </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -10695,10 +10724,14 @@
       <c r="I18" s="10">
         <v>2</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="10">
+        <v>2</v>
+      </c>
       <c r="L18" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10729,10 +10762,12 @@
       <c r="I19" s="10">
         <v>2</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10">
+        <v>2</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10763,10 +10798,12 @@
       <c r="I20" s="10">
         <v>2</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="10">
+        <v>2</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -10797,10 +10834,14 @@
       <c r="I21" s="10">
         <v>2</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="J21" s="10">
+        <v>2</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2</v>
+      </c>
       <c r="L21" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -10831,10 +10872,14 @@
       <c r="I22" s="10">
         <v>4</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="J22" s="10">
+        <v>4</v>
+      </c>
+      <c r="K22" s="10">
+        <v>4</v>
+      </c>
       <c r="L22" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10865,10 +10910,14 @@
       <c r="I23" s="10">
         <v>4</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="J23" s="10">
+        <v>4</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4</v>
+      </c>
       <c r="L23" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10899,10 +10948,14 @@
       <c r="I24" s="10">
         <v>2</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="J24" s="10">
+        <v>2</v>
+      </c>
+      <c r="K24" s="10">
+        <v>2</v>
+      </c>
       <c r="L24" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10933,10 +10986,14 @@
       <c r="I25" s="10">
         <v>2</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="J25" s="10">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10">
+        <v>2</v>
+      </c>
       <c r="L25" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2C1E9-936F-4BE9-B55F-0E57FFBAE7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A9F10-0B4A-48E6-89CA-0C45544ED2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Product Backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId4"/>
     <sheet name="Sprint 2 Backlog" sheetId="8" r:id="rId5"/>
-    <sheet name="Review" sheetId="7" r:id="rId6"/>
-    <sheet name="BurndownChart" sheetId="4" r:id="rId7"/>
-    <sheet name="Status" sheetId="6" r:id="rId8"/>
+    <sheet name="Sprint 3 Backlog" sheetId="9" r:id="rId6"/>
+    <sheet name="Review" sheetId="7" r:id="rId7"/>
+    <sheet name="BurndownChart" sheetId="4" r:id="rId8"/>
+    <sheet name="Status" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 1 Backlog'!$A$1:$CA$443</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -650,6 +651,87 @@
   </si>
   <si>
     <t>Update classdiagram</t>
+  </si>
+  <si>
+    <t>Static Code analyse</t>
+  </si>
+  <si>
+    <t>Run spotbugs</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Model: FAQ</t>
+  </si>
+  <si>
+    <t>Create FAQ Model</t>
+  </si>
+  <si>
+    <t>View: Show FAQ List</t>
+  </si>
+  <si>
+    <t>Manager: LoadFAQ</t>
+  </si>
+  <si>
+    <t>Ist possible to load FAQ Objects</t>
+  </si>
+  <si>
+    <t>ApplicationModelManager, PersistenceManager</t>
+  </si>
+  <si>
+    <t>View: FAQ Detail</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Manager: Multiuser</t>
+  </si>
+  <si>
+    <t>Move currentUser to Session</t>
+  </si>
+  <si>
+    <t>HealhtVisitor Manager</t>
+  </si>
+  <si>
+    <t>View all FAQs available</t>
+  </si>
+  <si>
+    <t>View details of an FAQ entry</t>
+  </si>
+  <si>
+    <t>Hilfe: View</t>
+  </si>
+  <si>
+    <t>Unify Layout</t>
+  </si>
+  <si>
+    <t>Show same layout on every page</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Model for Notifications</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Model: Notification</t>
+  </si>
+  <si>
+    <t>Describe dataprovider</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Move config values to a single config file</t>
   </si>
 </sst>
 </file>
@@ -757,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -847,6 +929,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1472,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,11 +1558,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,6 +2012,24 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -1943,8 +2046,8 @@
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10035,8 +10138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11130,6 +11233,598 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B711E-0C6E-4B5A-9FBB-FC46A2BAD6F2}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="16">
+        <v>4</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12.3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17" xr:uid="{AA051B77-EAC9-4B21-968E-19CEF353F35C}">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -11299,7 +11994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BF3"/>
   <sheetViews>
@@ -11416,7 +12111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/SoED/ch.bfh.bti7081.s2020.green/doc/task06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A9F10-0B4A-48E6-89CA-0C45544ED2B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C32FF6-1550-DB4B-BFE3-FFC390FF303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -1277,15 +1277,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="2" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="BO1"/>
       <c r="BP1"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>135</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>136</v>
       </c>
@@ -1475,12 +1475,12 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1565,16 +1565,16 @@
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="DG1"/>
       <c r="DH1"/>
     </row>
-    <row r="2" spans="1:112" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:112" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:112" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:112" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:112" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:112" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:112" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:112" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:112" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:112" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:112" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:112" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:112" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:112" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:112" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2050,19 +2050,19 @@
       <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="7" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="BZ1"/>
       <c r="CA1"/>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1.3</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1.4</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1.5</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>1.6</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>1.7</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1.8</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:79" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1.9</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2.1</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>2.2999999999999998</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:79" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>2.4</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:79" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2.5</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>3.1</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>3.2</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>3.3</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>3.4</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>3.5</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="str">
         <f>"1.10"</f>
         <v>1.10</v>
@@ -2996,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>2.6</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3053,7 +3053,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3070,7 +3070,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3087,7 +3087,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3104,7 +3104,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3121,7 +3121,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3138,7 +3138,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3155,7 +3155,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3172,7 +3172,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3189,7 +3189,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3206,7 +3206,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3223,7 +3223,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3240,7 +3240,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3257,7 +3257,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3274,7 +3274,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3291,7 +3291,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3308,7 +3308,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3325,7 +3325,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3342,7 +3342,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3359,7 +3359,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3376,7 +3376,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3393,7 +3393,7 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3410,7 +3410,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3427,7 +3427,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3444,7 +3444,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3461,7 +3461,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3478,7 +3478,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3495,7 +3495,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3512,7 +3512,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3529,7 +3529,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3546,7 +3546,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3563,7 +3563,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3580,7 +3580,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3597,7 +3597,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3614,7 +3614,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3631,7 +3631,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3648,7 +3648,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3665,7 +3665,7 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3682,7 +3682,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3699,7 +3699,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3716,7 +3716,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3733,7 +3733,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3750,7 +3750,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3767,7 +3767,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3784,7 +3784,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="8" t="e">
         <f t="shared" ref="B67:B130" si="1">LEFT(A67, FIND(".",A67)-1)</f>
@@ -3801,7 +3801,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3818,7 +3818,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3835,7 +3835,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3852,7 +3852,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3869,7 +3869,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3886,7 +3886,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3903,7 +3903,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3920,7 +3920,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3937,7 +3937,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3954,7 +3954,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3971,7 +3971,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3988,7 +3988,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4005,7 +4005,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4022,7 +4022,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4039,7 +4039,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4056,7 +4056,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4073,7 +4073,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4090,7 +4090,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4107,7 +4107,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4124,7 +4124,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4141,7 +4141,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4158,7 +4158,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4175,7 +4175,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4192,7 +4192,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4209,7 +4209,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4226,7 +4226,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4243,7 +4243,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4260,7 +4260,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4277,7 +4277,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4294,7 +4294,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4311,7 +4311,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4328,7 +4328,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4345,7 +4345,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4362,7 +4362,7 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4379,7 +4379,7 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4396,7 +4396,7 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4413,7 +4413,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4430,7 +4430,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4447,7 +4447,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4464,7 +4464,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4481,7 +4481,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4498,7 +4498,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4515,7 +4515,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4532,7 +4532,7 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4549,7 +4549,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4566,7 +4566,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4583,7 +4583,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4600,7 +4600,7 @@
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4617,7 +4617,7 @@
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4634,7 +4634,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4651,7 +4651,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4668,7 +4668,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4685,7 +4685,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4702,7 +4702,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4719,7 +4719,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4736,7 +4736,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4753,7 +4753,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4770,7 +4770,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4787,7 +4787,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4804,7 +4804,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4821,7 +4821,7 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4838,7 +4838,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4855,7 +4855,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4872,7 +4872,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="8" t="e">
         <f t="shared" ref="B131:B194" si="2">LEFT(A131, FIND(".",A131)-1)</f>
@@ -4889,7 +4889,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4906,7 +4906,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4923,7 +4923,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4940,7 +4940,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4957,7 +4957,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4974,7 +4974,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4991,7 +4991,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5008,7 +5008,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5025,7 +5025,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5042,7 +5042,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5059,7 +5059,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5076,7 +5076,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5093,7 +5093,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5110,7 +5110,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5127,7 +5127,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5144,7 +5144,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5161,7 +5161,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5178,7 +5178,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5195,7 +5195,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5212,7 +5212,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5229,7 +5229,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5246,7 +5246,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5263,7 +5263,7 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5280,7 +5280,7 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5297,7 +5297,7 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5314,7 +5314,7 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5331,7 +5331,7 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5348,7 +5348,7 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5365,7 +5365,7 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5382,7 +5382,7 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5399,7 +5399,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5416,7 +5416,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5433,7 +5433,7 @@
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5450,7 +5450,7 @@
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5467,7 +5467,7 @@
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5484,7 +5484,7 @@
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5501,7 +5501,7 @@
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5518,7 +5518,7 @@
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5535,7 +5535,7 @@
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5552,7 +5552,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5569,7 +5569,7 @@
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5586,7 +5586,7 @@
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5603,7 +5603,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5620,7 +5620,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5637,7 +5637,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5654,7 +5654,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5671,7 +5671,7 @@
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5688,7 +5688,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5705,7 +5705,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5722,7 +5722,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5739,7 +5739,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5756,7 +5756,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5773,7 +5773,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5790,7 +5790,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5807,7 +5807,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5824,7 +5824,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5841,7 +5841,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="6"/>
       <c r="B188" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5858,7 +5858,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="6"/>
       <c r="B189" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5875,7 +5875,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="6"/>
       <c r="B190" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5892,7 +5892,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="6"/>
       <c r="B191" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5909,7 +5909,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
       <c r="B192" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5926,7 +5926,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="6"/>
       <c r="B193" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5943,7 +5943,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5960,7 +5960,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
       <c r="B195" s="8" t="e">
         <f t="shared" ref="B195:B258" si="3">LEFT(A195, FIND(".",A195)-1)</f>
@@ -5977,7 +5977,7 @@
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="6"/>
       <c r="B196" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5994,7 +5994,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="6"/>
       <c r="B197" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6011,7 +6011,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="6"/>
       <c r="B198" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6028,7 +6028,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
       <c r="B199" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6045,7 +6045,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
       <c r="B200" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6062,7 +6062,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="6"/>
       <c r="B201" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6079,7 +6079,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="6"/>
       <c r="B202" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6096,7 +6096,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
       <c r="B203" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6113,7 +6113,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="6"/>
       <c r="B204" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6130,7 +6130,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="6"/>
       <c r="B205" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6147,7 +6147,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="6"/>
       <c r="B206" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6164,7 +6164,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="6"/>
       <c r="B207" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6181,7 +6181,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="6"/>
       <c r="B208" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6198,7 +6198,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="6"/>
       <c r="B209" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6215,7 +6215,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="6"/>
       <c r="B210" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6232,7 +6232,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="6"/>
       <c r="B211" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6249,7 +6249,7 @@
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="6"/>
       <c r="B212" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6266,7 +6266,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="6"/>
       <c r="B213" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6283,7 +6283,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>
       <c r="B214" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6300,7 +6300,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
       <c r="B215" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6317,7 +6317,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
       <c r="B216" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6334,7 +6334,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="6"/>
       <c r="B217" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6351,7 +6351,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="6"/>
       <c r="B218" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6368,7 +6368,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="6"/>
       <c r="B219" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6385,7 +6385,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
       <c r="B220" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6402,7 +6402,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="6"/>
       <c r="B221" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6419,7 +6419,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
       <c r="B222" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6436,7 +6436,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
       <c r="B223" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6453,7 +6453,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="6"/>
       <c r="B224" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6470,7 +6470,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="6"/>
       <c r="B225" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6487,7 +6487,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="6"/>
       <c r="B226" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6504,7 +6504,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="6"/>
       <c r="B227" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6521,7 +6521,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="6"/>
       <c r="B228" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6538,7 +6538,7 @@
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="6"/>
       <c r="B229" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6555,7 +6555,7 @@
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="6"/>
       <c r="B230" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6572,7 +6572,7 @@
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6589,7 +6589,7 @@
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="6"/>
       <c r="B232" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6606,7 +6606,7 @@
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="6"/>
       <c r="B233" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6623,7 +6623,7 @@
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="6"/>
       <c r="B234" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6640,7 +6640,7 @@
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="6"/>
       <c r="B235" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6657,7 +6657,7 @@
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="6"/>
       <c r="B236" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6674,7 +6674,7 @@
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="6"/>
       <c r="B237" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6691,7 +6691,7 @@
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6708,7 +6708,7 @@
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="6"/>
       <c r="B239" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6725,7 +6725,7 @@
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="6"/>
       <c r="B240" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6742,7 +6742,7 @@
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="6"/>
       <c r="B241" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6759,7 +6759,7 @@
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
       <c r="B242" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6776,7 +6776,7 @@
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="6"/>
       <c r="B243" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6793,7 +6793,7 @@
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="6"/>
       <c r="B244" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6810,7 +6810,7 @@
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="6"/>
       <c r="B245" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6827,7 +6827,7 @@
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="6"/>
       <c r="B246" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6844,7 +6844,7 @@
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="6"/>
       <c r="B247" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6861,7 +6861,7 @@
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
       <c r="B248" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6878,7 +6878,7 @@
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
       <c r="B249" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6895,7 +6895,7 @@
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
       <c r="B250" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6912,7 +6912,7 @@
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
       <c r="B251" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6929,7 +6929,7 @@
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
       <c r="B252" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6946,7 +6946,7 @@
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
       <c r="B253" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6963,7 +6963,7 @@
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
       <c r="B254" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6980,7 +6980,7 @@
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
       <c r="B255" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6997,7 +6997,7 @@
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
       <c r="B256" s="8" t="e">
         <f t="shared" si="3"/>
@@ -7014,7 +7014,7 @@
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
       <c r="B257" s="8" t="e">
         <f t="shared" si="3"/>
@@ -7031,7 +7031,7 @@
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
       <c r="B258" s="8" t="e">
         <f t="shared" si="3"/>
@@ -7048,7 +7048,7 @@
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
       <c r="B259" s="8" t="e">
         <f t="shared" ref="B259:B322" si="4">LEFT(A259, FIND(".",A259)-1)</f>
@@ -7065,7 +7065,7 @@
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
       <c r="B260" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7082,7 +7082,7 @@
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
       <c r="B261" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7099,7 +7099,7 @@
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
       <c r="B262" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7116,7 +7116,7 @@
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
       <c r="B263" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7133,7 +7133,7 @@
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
       <c r="B264" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7150,7 +7150,7 @@
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
       <c r="B265" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7167,7 +7167,7 @@
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
       <c r="B266" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7184,7 +7184,7 @@
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
       <c r="B267" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7201,7 +7201,7 @@
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
       <c r="B268" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7218,7 +7218,7 @@
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
       <c r="B269" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7235,7 +7235,7 @@
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
       <c r="B270" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7252,7 +7252,7 @@
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
       <c r="B271" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7269,7 +7269,7 @@
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
       <c r="B272" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7286,7 +7286,7 @@
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
       <c r="B273" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7303,7 +7303,7 @@
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
       <c r="B274" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7320,7 +7320,7 @@
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
       <c r="B275" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7337,7 +7337,7 @@
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
       <c r="B276" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7354,7 +7354,7 @@
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
       <c r="B277" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7371,7 +7371,7 @@
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
       <c r="B278" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7388,7 +7388,7 @@
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
       <c r="B279" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7405,7 +7405,7 @@
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
       <c r="B280" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7422,7 +7422,7 @@
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
       <c r="B281" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7439,7 +7439,7 @@
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="B282" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7456,7 +7456,7 @@
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
       <c r="B283" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7473,7 +7473,7 @@
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
       <c r="B284" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7490,7 +7490,7 @@
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
       <c r="B285" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7507,7 +7507,7 @@
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
       <c r="B286" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7524,7 +7524,7 @@
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
       <c r="B287" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7541,7 +7541,7 @@
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
       <c r="B288" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7558,7 +7558,7 @@
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
       <c r="B289" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7575,7 +7575,7 @@
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
       <c r="B290" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7592,7 +7592,7 @@
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
       <c r="B291" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7609,7 +7609,7 @@
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
       <c r="B292" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7626,7 +7626,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
       <c r="B293" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7643,7 +7643,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
       <c r="B294" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7660,7 +7660,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
       <c r="B295" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7677,7 +7677,7 @@
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
       <c r="B296" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7694,7 +7694,7 @@
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
       <c r="B297" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7711,7 +7711,7 @@
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
       <c r="B298" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7728,7 +7728,7 @@
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
       <c r="B299" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7745,7 +7745,7 @@
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
       <c r="B300" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7762,7 +7762,7 @@
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
       <c r="B301" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7779,7 +7779,7 @@
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
       <c r="B302" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7796,7 +7796,7 @@
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="6"/>
       <c r="B303" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7813,7 +7813,7 @@
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="6"/>
       <c r="B304" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7830,7 +7830,7 @@
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="6"/>
       <c r="B305" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7847,7 +7847,7 @@
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="6"/>
       <c r="B306" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7864,7 +7864,7 @@
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="6"/>
       <c r="B307" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7881,7 +7881,7 @@
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="6"/>
       <c r="B308" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7898,7 +7898,7 @@
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
       <c r="B309" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7915,7 +7915,7 @@
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
       <c r="B310" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7932,7 +7932,7 @@
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="6"/>
       <c r="B311" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7949,7 +7949,7 @@
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="6"/>
       <c r="B312" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7966,7 +7966,7 @@
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="6"/>
       <c r="B313" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7983,7 +7983,7 @@
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="6"/>
       <c r="B314" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8000,7 +8000,7 @@
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="6"/>
       <c r="B315" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8017,7 +8017,7 @@
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="6"/>
       <c r="B316" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8034,7 +8034,7 @@
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="B317" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8051,7 +8051,7 @@
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="6"/>
       <c r="B318" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8068,7 +8068,7 @@
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="6"/>
       <c r="B319" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8085,7 +8085,7 @@
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="6"/>
       <c r="B320" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8102,7 +8102,7 @@
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="6"/>
       <c r="B321" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8119,7 +8119,7 @@
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="6"/>
       <c r="B322" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8136,7 +8136,7 @@
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="6"/>
       <c r="B323" s="8" t="e">
         <f t="shared" ref="B323:B361" si="5">LEFT(A323, FIND(".",A323)-1)</f>
@@ -8153,7 +8153,7 @@
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
       <c r="B324" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8170,7 +8170,7 @@
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="6"/>
       <c r="B325" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8187,7 +8187,7 @@
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="6"/>
       <c r="B326" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8204,7 +8204,7 @@
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="6"/>
       <c r="B327" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8221,7 +8221,7 @@
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="B328" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8238,7 +8238,7 @@
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="6"/>
       <c r="B329" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8255,7 +8255,7 @@
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="6"/>
       <c r="B330" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8272,7 +8272,7 @@
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="6"/>
       <c r="B331" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8289,7 +8289,7 @@
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="6"/>
       <c r="B332" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8306,7 +8306,7 @@
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="6"/>
       <c r="B333" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8323,7 +8323,7 @@
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="6"/>
       <c r="B334" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8340,7 +8340,7 @@
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="6"/>
       <c r="B335" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8357,7 +8357,7 @@
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="6"/>
       <c r="B336" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8374,7 +8374,7 @@
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="6"/>
       <c r="B337" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8391,7 +8391,7 @@
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="6"/>
       <c r="B338" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8408,7 +8408,7 @@
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="6"/>
       <c r="B339" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8425,7 +8425,7 @@
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="6"/>
       <c r="B340" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8442,7 +8442,7 @@
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="6"/>
       <c r="B341" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8459,7 +8459,7 @@
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="6"/>
       <c r="B342" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8476,7 +8476,7 @@
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="6"/>
       <c r="B343" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8493,7 +8493,7 @@
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="6"/>
       <c r="B344" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8510,7 +8510,7 @@
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="6"/>
       <c r="B345" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8527,7 +8527,7 @@
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="6"/>
       <c r="B346" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8544,7 +8544,7 @@
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
       <c r="B347" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8561,7 +8561,7 @@
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
       <c r="B348" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8578,7 +8578,7 @@
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="6"/>
       <c r="B349" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8595,7 +8595,7 @@
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="6"/>
       <c r="B350" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8612,7 +8612,7 @@
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="6"/>
       <c r="B351" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8629,7 +8629,7 @@
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="6"/>
       <c r="B352" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8646,7 +8646,7 @@
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="6"/>
       <c r="B353" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8663,7 +8663,7 @@
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="6"/>
       <c r="B354" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8680,7 +8680,7 @@
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="6"/>
       <c r="B355" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8697,7 +8697,7 @@
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="6"/>
       <c r="B356" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8714,7 +8714,7 @@
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="6"/>
       <c r="B357" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8731,7 +8731,7 @@
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="6"/>
       <c r="B358" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8748,7 +8748,7 @@
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
       <c r="B359" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8765,7 +8765,7 @@
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="6"/>
       <c r="B360" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8782,7 +8782,7 @@
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="6"/>
       <c r="B361" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8799,7 +8799,7 @@
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="6"/>
       <c r="B362" s="6" t="e">
         <f t="shared" ref="B362:B392" si="6">LEFT(A362, FIND(".",A362)-1)</f>
@@ -8816,7 +8816,7 @@
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
       <c r="B363" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8833,7 +8833,7 @@
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="6"/>
       <c r="B364" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8850,7 +8850,7 @@
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8867,7 +8867,7 @@
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8884,7 +8884,7 @@
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="6"/>
       <c r="B367" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8901,7 +8901,7 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="6"/>
       <c r="B368" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8918,7 +8918,7 @@
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="6"/>
       <c r="B369" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8935,7 +8935,7 @@
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="6"/>
       <c r="B370" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8952,7 +8952,7 @@
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="6"/>
       <c r="B371" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8969,7 +8969,7 @@
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="6"/>
       <c r="B372" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8986,7 +8986,7 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="6"/>
       <c r="B373" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9003,7 +9003,7 @@
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="B374" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9020,7 +9020,7 @@
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="6"/>
       <c r="B375" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9037,7 +9037,7 @@
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9054,7 +9054,7 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9071,7 +9071,7 @@
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="6"/>
       <c r="B378" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9088,7 +9088,7 @@
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9105,7 +9105,7 @@
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="6"/>
       <c r="B380" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9122,7 +9122,7 @@
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
       <c r="B381" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9139,7 +9139,7 @@
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
       <c r="B382" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9156,7 +9156,7 @@
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="6"/>
       <c r="B383" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9173,7 +9173,7 @@
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="6"/>
       <c r="B384" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9190,7 +9190,7 @@
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="6"/>
       <c r="B385" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9207,7 +9207,7 @@
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="6"/>
       <c r="B386" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9224,7 +9224,7 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9241,7 +9241,7 @@
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="6"/>
       <c r="B388" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9258,7 +9258,7 @@
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="6"/>
       <c r="B389" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9275,7 +9275,7 @@
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="6"/>
       <c r="B390" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9292,7 +9292,7 @@
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="6"/>
       <c r="B391" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9309,7 +9309,7 @@
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="6"/>
       <c r="B392" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9326,7 +9326,7 @@
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="6"/>
       <c r="B393" s="6" t="e">
         <f t="shared" ref="B393:B443" si="7">LEFT(A393, FIND(".",A393)-1)</f>
@@ -9343,7 +9343,7 @@
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="6"/>
       <c r="B394" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9360,7 +9360,7 @@
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="6"/>
       <c r="B395" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9377,7 +9377,7 @@
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="6"/>
       <c r="B396" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9394,7 +9394,7 @@
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="6"/>
       <c r="B397" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9411,7 +9411,7 @@
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="6"/>
       <c r="B398" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9428,7 +9428,7 @@
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="6"/>
       <c r="B399" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9445,7 +9445,7 @@
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="6"/>
       <c r="B400" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9462,7 +9462,7 @@
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="6"/>
       <c r="B401" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9479,7 +9479,7 @@
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="6"/>
       <c r="B402" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9496,7 +9496,7 @@
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="6"/>
       <c r="B403" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9513,7 +9513,7 @@
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="6"/>
       <c r="B404" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9530,7 +9530,7 @@
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="6"/>
       <c r="B405" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9547,7 +9547,7 @@
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="6"/>
       <c r="B406" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9564,7 +9564,7 @@
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="6"/>
       <c r="B407" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9581,7 +9581,7 @@
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="6"/>
       <c r="B408" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9598,7 +9598,7 @@
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
       <c r="B409" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9615,7 +9615,7 @@
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="6"/>
       <c r="B410" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9632,7 +9632,7 @@
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="6"/>
       <c r="B411" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9649,7 +9649,7 @@
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="6"/>
       <c r="B412" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9666,7 +9666,7 @@
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="6"/>
       <c r="B413" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9683,7 +9683,7 @@
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="6"/>
       <c r="B414" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9700,7 +9700,7 @@
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="6"/>
       <c r="B415" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9717,7 +9717,7 @@
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9734,7 +9734,7 @@
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9751,7 +9751,7 @@
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="6"/>
       <c r="B418" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9768,7 +9768,7 @@
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="6"/>
       <c r="B419" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9785,7 +9785,7 @@
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B420" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9799,7 +9799,7 @@
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B421" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9813,7 +9813,7 @@
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B422" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9827,7 +9827,7 @@
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B423" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9841,7 +9841,7 @@
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B424" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9855,7 +9855,7 @@
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B425" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9869,7 +9869,7 @@
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B426" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9883,7 +9883,7 @@
       <c r="L426" s="7"/>
       <c r="M426" s="7"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B427" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9897,7 +9897,7 @@
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B428" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9911,7 +9911,7 @@
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B429" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9925,7 +9925,7 @@
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B430" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9939,7 +9939,7 @@
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B431" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9953,7 +9953,7 @@
       <c r="L431" s="7"/>
       <c r="M431" s="7"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B432" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9967,7 +9967,7 @@
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
     </row>
-    <row r="433" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B433" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9981,7 +9981,7 @@
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
     </row>
-    <row r="434" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B434" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9995,7 +9995,7 @@
       <c r="L434" s="7"/>
       <c r="M434" s="7"/>
     </row>
-    <row r="435" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B435" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10009,7 +10009,7 @@
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
     </row>
-    <row r="436" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B436" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10023,7 +10023,7 @@
       <c r="L436" s="7"/>
       <c r="M436" s="7"/>
     </row>
-    <row r="437" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B437" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10037,7 +10037,7 @@
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
     </row>
-    <row r="438" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B438" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10051,7 +10051,7 @@
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
     </row>
-    <row r="439" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B439" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10065,7 +10065,7 @@
       <c r="L439" s="7"/>
       <c r="M439" s="7"/>
     </row>
-    <row r="440" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B440" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10079,7 +10079,7 @@
       <c r="L440" s="7"/>
       <c r="M440" s="7"/>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B441" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10093,7 +10093,7 @@
       <c r="L441" s="7"/>
       <c r="M441" s="7"/>
     </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B442" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10104,7 +10104,7 @@
       <c r="L442" s="7"/>
       <c r="M442" s="7"/>
     </row>
-    <row r="443" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B443" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10115,7 +10115,7 @@
       <c r="L443" s="7"/>
       <c r="M443" s="7"/>
     </row>
-    <row r="444" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I444" s="7"/>
       <c r="J444" s="7"/>
       <c r="K444" s="7"/>
@@ -10142,20 +10142,20 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>3.1</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3.2</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3.3</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3.4</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>3.5</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3.6</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>4.2</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4.3</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>4.4000000000000004</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>4.5</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>4.5999999999999996</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>4.7</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>4.8</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>4.9000000000000004</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>5.2</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>5.3</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>5.4</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>6.1</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>6.2</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>8.1</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>8.1999999999999993</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>8.3000000000000007</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>7.1</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>7.2</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>7.3</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8">
         <v>2</v>
@@ -11237,21 +11237,21 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="6"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="6"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>5.3</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>5.4</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>7.1</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>7.2</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>7.3</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7.4</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>10.1</v>
       </c>
@@ -11551,13 +11551,17 @@
       <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
       <c r="L9" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>10.199999999999999</v>
       </c>
@@ -11583,13 +11587,17 @@
       <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
       <c r="L10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10.3</v>
       </c>
@@ -11615,13 +11623,17 @@
       <c r="I11" s="16">
         <v>2</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
       <c r="L11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10.4</v>
       </c>
@@ -11650,10 +11662,10 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12.1</v>
       </c>
@@ -11685,7 +11697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12.2</v>
       </c>
@@ -11717,7 +11729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>12.3</v>
       </c>
@@ -11749,7 +11761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>12.4</v>
       </c>
@@ -11781,7 +11793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>12.5</v>
       </c>
@@ -11832,17 +11844,17 @@
       <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
@@ -11854,7 +11866,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -11874,7 +11886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -11897,7 +11909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
@@ -11920,7 +11932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -11943,7 +11955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -11966,7 +11978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -12002,14 +12014,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -12077,7 +12089,7 @@
       <c r="BE1" s="34"/>
       <c r="BF1" s="34"/>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -12091,7 +12103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -12119,24 +12131,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/SoED/ch.bfh.bti7081.s2020.green/doc/task06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C32FF6-1550-DB4B-BFE3-FFC390FF303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57980516-B38E-4756-A666-ADE9B8D747B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="235">
   <si>
     <t>ID</t>
   </si>
@@ -732,6 +732,21 @@
   </si>
   <si>
     <t>Move config values to a single config file</t>
+  </si>
+  <si>
+    <t>Präsi</t>
+  </si>
+  <si>
+    <t>Einführung Präsi / Desing Thinking</t>
+  </si>
+  <si>
+    <t>Technology / Highlights</t>
+  </si>
+  <si>
+    <t>Fazit / IST/SOLL Vergleich</t>
+  </si>
+  <si>
+    <t>Demo aufzeichnen</t>
   </si>
 </sst>
 </file>
@@ -1277,15 +1292,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="2" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" s="2" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1378,7 @@
       <c r="BO1"/>
       <c r="BP1"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>135</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>136</v>
       </c>
@@ -1475,12 +1490,12 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +1512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1515,7 +1530,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1561,20 +1576,21 @@
   <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:112" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1720,7 @@
       <c r="DG1"/>
       <c r="DH1"/>
     </row>
-    <row r="2" spans="1:112" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:112" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1729,10 +1745,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:112" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1757,10 +1773,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:112" ht="48" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:112" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1785,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:112" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1813,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:112" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1841,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:112" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1869,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:112" ht="48" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:112" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1897,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:112" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1925,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:112" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1953,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:112" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1981,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:112" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:112" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2009,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2050,19 +2066,19 @@
       <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
-    <col min="7" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2185,7 @@
       <c r="BZ1"/>
       <c r="CA1"/>
     </row>
-    <row r="2" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -2211,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1.2</v>
       </c>
@@ -2253,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1.3</v>
       </c>
@@ -2295,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1.4</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:79" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1.5</v>
       </c>
@@ -2379,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:79" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1.6</v>
       </c>
@@ -2419,7 +2435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1.7</v>
       </c>
@@ -2461,7 +2477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:79" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>1.8</v>
       </c>
@@ -2503,7 +2519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:79" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1.9</v>
       </c>
@@ -2545,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2.1</v>
       </c>
@@ -2587,7 +2603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:79" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2629,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:79" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2.2999999999999998</v>
       </c>
@@ -2671,7 +2687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:79" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2.4</v>
       </c>
@@ -2713,7 +2729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:79" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2.5</v>
       </c>
@@ -2753,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:79" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3.1</v>
       </c>
@@ -2793,7 +2809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>3.2</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3.3</v>
       </c>
@@ -2873,7 +2889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>3.4</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>3.5</v>
       </c>
@@ -2955,7 +2971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="str">
         <f>"1.10"</f>
         <v>1.10</v>
@@ -2996,7 +3012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>2.6</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3053,7 +3069,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3070,7 +3086,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3087,7 +3103,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3104,7 +3120,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3121,7 +3137,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3138,7 +3154,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3155,7 +3171,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3172,7 +3188,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3189,7 +3205,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3206,7 +3222,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3223,7 +3239,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3240,7 +3256,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3257,7 +3273,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3274,7 +3290,7 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3291,7 +3307,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3308,7 +3324,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3325,7 +3341,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3342,7 +3358,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3359,7 +3375,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3376,7 +3392,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3393,7 +3409,7 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3410,7 +3426,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3427,7 +3443,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3444,7 +3460,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3461,7 +3477,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3478,7 +3494,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3495,7 +3511,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3512,7 +3528,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3529,7 +3545,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3546,7 +3562,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3563,7 +3579,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3580,7 +3596,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3597,7 +3613,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3614,7 +3630,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3631,7 +3647,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3648,7 +3664,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3665,7 +3681,7 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3682,7 +3698,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3699,7 +3715,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3716,7 +3732,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3733,7 +3749,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3750,7 +3766,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3767,7 +3783,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="8" t="e">
         <f t="shared" si="0"/>
@@ -3784,7 +3800,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8" t="e">
         <f t="shared" ref="B67:B130" si="1">LEFT(A67, FIND(".",A67)-1)</f>
@@ -3801,7 +3817,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3818,7 +3834,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3835,7 +3851,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3852,7 +3868,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3869,7 +3885,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3886,7 +3902,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3903,7 +3919,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3920,7 +3936,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3937,7 +3953,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3954,7 +3970,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3971,7 +3987,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="8" t="e">
         <f t="shared" si="1"/>
@@ -3988,7 +4004,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4005,7 +4021,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4022,7 +4038,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4039,7 +4055,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4056,7 +4072,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4073,7 +4089,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4090,7 +4106,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4107,7 +4123,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4124,7 +4140,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4141,7 +4157,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4158,7 +4174,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4175,7 +4191,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4192,7 +4208,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4209,7 +4225,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4226,7 +4242,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4243,7 +4259,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4260,7 +4276,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4277,7 +4293,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4294,7 +4310,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4311,7 +4327,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4328,7 +4344,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4345,7 +4361,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4362,7 +4378,7 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4379,7 +4395,7 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4396,7 +4412,7 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4413,7 +4429,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4430,7 +4446,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4447,7 +4463,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4464,7 +4480,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4481,7 +4497,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4498,7 +4514,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4515,7 +4531,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4532,7 +4548,7 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4549,7 +4565,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4566,7 +4582,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4583,7 +4599,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4600,7 +4616,7 @@
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4617,7 +4633,7 @@
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4634,7 +4650,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4651,7 +4667,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4668,7 +4684,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4685,7 +4701,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4702,7 +4718,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4719,7 +4735,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4736,7 +4752,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4753,7 +4769,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4770,7 +4786,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4787,7 +4803,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4804,7 +4820,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4821,7 +4837,7 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4838,7 +4854,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4855,7 +4871,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="8" t="e">
         <f t="shared" si="1"/>
@@ -4872,7 +4888,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="8" t="e">
         <f t="shared" ref="B131:B194" si="2">LEFT(A131, FIND(".",A131)-1)</f>
@@ -4889,7 +4905,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4906,7 +4922,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4923,7 +4939,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4940,7 +4956,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4957,7 +4973,7 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4974,7 +4990,7 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="8" t="e">
         <f t="shared" si="2"/>
@@ -4991,7 +5007,7 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5008,7 +5024,7 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5025,7 +5041,7 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5042,7 +5058,7 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5059,7 +5075,7 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5076,7 +5092,7 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5093,7 +5109,7 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5110,7 +5126,7 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5127,7 +5143,7 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5144,7 +5160,7 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5161,7 +5177,7 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5178,7 +5194,7 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5195,7 +5211,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5212,7 +5228,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5229,7 +5245,7 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5246,7 +5262,7 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5263,7 +5279,7 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5280,7 +5296,7 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5297,7 +5313,7 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5314,7 +5330,7 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5331,7 +5347,7 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5348,7 +5364,7 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5365,7 +5381,7 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5382,7 +5398,7 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5399,7 +5415,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5416,7 +5432,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5433,7 +5449,7 @@
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5450,7 +5466,7 @@
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5467,7 +5483,7 @@
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5484,7 +5500,7 @@
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5501,7 +5517,7 @@
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5518,7 +5534,7 @@
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5535,7 +5551,7 @@
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5552,7 +5568,7 @@
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5569,7 +5585,7 @@
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5586,7 +5602,7 @@
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5603,7 +5619,7 @@
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5620,7 +5636,7 @@
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5637,7 +5653,7 @@
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5654,7 +5670,7 @@
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5671,7 +5687,7 @@
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5688,7 +5704,7 @@
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5705,7 +5721,7 @@
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5722,7 +5738,7 @@
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5739,7 +5755,7 @@
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5756,7 +5772,7 @@
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5773,7 +5789,7 @@
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5790,7 +5806,7 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5807,7 +5823,7 @@
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5824,7 +5840,7 @@
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5841,7 +5857,7 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5858,7 +5874,7 @@
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5875,7 +5891,7 @@
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5892,7 +5908,7 @@
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5909,7 +5925,7 @@
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5926,7 +5942,7 @@
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5943,7 +5959,7 @@
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="8" t="e">
         <f t="shared" si="2"/>
@@ -5960,7 +5976,7 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="8" t="e">
         <f t="shared" ref="B195:B258" si="3">LEFT(A195, FIND(".",A195)-1)</f>
@@ -5977,7 +5993,7 @@
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5994,7 +6010,7 @@
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6011,7 +6027,7 @@
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6028,7 +6044,7 @@
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6045,7 +6061,7 @@
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6062,7 +6078,7 @@
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6079,7 +6095,7 @@
       <c r="L201" s="7"/>
       <c r="M201" s="7"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6096,7 +6112,7 @@
       <c r="L202" s="7"/>
       <c r="M202" s="7"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6113,7 +6129,7 @@
       <c r="L203" s="7"/>
       <c r="M203" s="7"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6130,7 +6146,7 @@
       <c r="L204" s="7"/>
       <c r="M204" s="7"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6147,7 +6163,7 @@
       <c r="L205" s="7"/>
       <c r="M205" s="7"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6164,7 +6180,7 @@
       <c r="L206" s="7"/>
       <c r="M206" s="7"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6181,7 +6197,7 @@
       <c r="L207" s="7"/>
       <c r="M207" s="7"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6198,7 +6214,7 @@
       <c r="L208" s="7"/>
       <c r="M208" s="7"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6215,7 +6231,7 @@
       <c r="L209" s="7"/>
       <c r="M209" s="7"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6232,7 +6248,7 @@
       <c r="L210" s="7"/>
       <c r="M210" s="7"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6249,7 +6265,7 @@
       <c r="L211" s="7"/>
       <c r="M211" s="7"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6266,7 +6282,7 @@
       <c r="L212" s="7"/>
       <c r="M212" s="7"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6283,7 +6299,7 @@
       <c r="L213" s="7"/>
       <c r="M213" s="7"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6300,7 +6316,7 @@
       <c r="L214" s="7"/>
       <c r="M214" s="7"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6317,7 +6333,7 @@
       <c r="L215" s="7"/>
       <c r="M215" s="7"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6334,7 +6350,7 @@
       <c r="L216" s="7"/>
       <c r="M216" s="7"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6351,7 +6367,7 @@
       <c r="L217" s="7"/>
       <c r="M217" s="7"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6368,7 +6384,7 @@
       <c r="L218" s="7"/>
       <c r="M218" s="7"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6385,7 +6401,7 @@
       <c r="L219" s="7"/>
       <c r="M219" s="7"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6402,7 +6418,7 @@
       <c r="L220" s="7"/>
       <c r="M220" s="7"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6419,7 +6435,7 @@
       <c r="L221" s="7"/>
       <c r="M221" s="7"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6436,7 +6452,7 @@
       <c r="L222" s="7"/>
       <c r="M222" s="7"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6453,7 +6469,7 @@
       <c r="L223" s="7"/>
       <c r="M223" s="7"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6470,7 +6486,7 @@
       <c r="L224" s="7"/>
       <c r="M224" s="7"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6487,7 +6503,7 @@
       <c r="L225" s="7"/>
       <c r="M225" s="7"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6504,7 +6520,7 @@
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6521,7 +6537,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6538,7 +6554,7 @@
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6555,7 +6571,7 @@
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6572,7 +6588,7 @@
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6589,7 +6605,7 @@
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6606,7 +6622,7 @@
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6623,7 +6639,7 @@
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6640,7 +6656,7 @@
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6657,7 +6673,7 @@
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6674,7 +6690,7 @@
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6691,7 +6707,7 @@
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6708,7 +6724,7 @@
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6725,7 +6741,7 @@
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6742,7 +6758,7 @@
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6759,7 +6775,7 @@
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6776,7 +6792,7 @@
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6793,7 +6809,7 @@
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6810,7 +6826,7 @@
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6827,7 +6843,7 @@
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6844,7 +6860,7 @@
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6861,7 +6877,7 @@
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6878,7 +6894,7 @@
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6895,7 +6911,7 @@
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6912,7 +6928,7 @@
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6929,7 +6945,7 @@
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6946,7 +6962,7 @@
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6963,7 +6979,7 @@
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6980,7 +6996,7 @@
       <c r="L254" s="7"/>
       <c r="M254" s="7"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="8" t="e">
         <f t="shared" si="3"/>
@@ -6997,7 +7013,7 @@
       <c r="L255" s="7"/>
       <c r="M255" s="7"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="8" t="e">
         <f t="shared" si="3"/>
@@ -7014,7 +7030,7 @@
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="8" t="e">
         <f t="shared" si="3"/>
@@ -7031,7 +7047,7 @@
       <c r="L257" s="7"/>
       <c r="M257" s="7"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="8" t="e">
         <f t="shared" si="3"/>
@@ -7048,7 +7064,7 @@
       <c r="L258" s="7"/>
       <c r="M258" s="7"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="8" t="e">
         <f t="shared" ref="B259:B322" si="4">LEFT(A259, FIND(".",A259)-1)</f>
@@ -7065,7 +7081,7 @@
       <c r="L259" s="7"/>
       <c r="M259" s="7"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7082,7 +7098,7 @@
       <c r="L260" s="7"/>
       <c r="M260" s="7"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7099,7 +7115,7 @@
       <c r="L261" s="7"/>
       <c r="M261" s="7"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7116,7 +7132,7 @@
       <c r="L262" s="7"/>
       <c r="M262" s="7"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7133,7 +7149,7 @@
       <c r="L263" s="7"/>
       <c r="M263" s="7"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7150,7 +7166,7 @@
       <c r="L264" s="7"/>
       <c r="M264" s="7"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7167,7 +7183,7 @@
       <c r="L265" s="7"/>
       <c r="M265" s="7"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7184,7 +7200,7 @@
       <c r="L266" s="7"/>
       <c r="M266" s="7"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7201,7 +7217,7 @@
       <c r="L267" s="7"/>
       <c r="M267" s="7"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7218,7 +7234,7 @@
       <c r="L268" s="7"/>
       <c r="M268" s="7"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7235,7 +7251,7 @@
       <c r="L269" s="7"/>
       <c r="M269" s="7"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7252,7 +7268,7 @@
       <c r="L270" s="7"/>
       <c r="M270" s="7"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7269,7 +7285,7 @@
       <c r="L271" s="7"/>
       <c r="M271" s="7"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7286,7 +7302,7 @@
       <c r="L272" s="7"/>
       <c r="M272" s="7"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7303,7 +7319,7 @@
       <c r="L273" s="7"/>
       <c r="M273" s="7"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7320,7 +7336,7 @@
       <c r="L274" s="7"/>
       <c r="M274" s="7"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7337,7 +7353,7 @@
       <c r="L275" s="7"/>
       <c r="M275" s="7"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7354,7 +7370,7 @@
       <c r="L276" s="7"/>
       <c r="M276" s="7"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7371,7 +7387,7 @@
       <c r="L277" s="7"/>
       <c r="M277" s="7"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7388,7 +7404,7 @@
       <c r="L278" s="7"/>
       <c r="M278" s="7"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7405,7 +7421,7 @@
       <c r="L279" s="7"/>
       <c r="M279" s="7"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7422,7 +7438,7 @@
       <c r="L280" s="7"/>
       <c r="M280" s="7"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7439,7 +7455,7 @@
       <c r="L281" s="7"/>
       <c r="M281" s="7"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7456,7 +7472,7 @@
       <c r="L282" s="7"/>
       <c r="M282" s="7"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7473,7 +7489,7 @@
       <c r="L283" s="7"/>
       <c r="M283" s="7"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7490,7 +7506,7 @@
       <c r="L284" s="7"/>
       <c r="M284" s="7"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7507,7 +7523,7 @@
       <c r="L285" s="7"/>
       <c r="M285" s="7"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7524,7 +7540,7 @@
       <c r="L286" s="7"/>
       <c r="M286" s="7"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7541,7 +7557,7 @@
       <c r="L287" s="7"/>
       <c r="M287" s="7"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7558,7 +7574,7 @@
       <c r="L288" s="7"/>
       <c r="M288" s="7"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7575,7 +7591,7 @@
       <c r="L289" s="7"/>
       <c r="M289" s="7"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7592,7 +7608,7 @@
       <c r="L290" s="7"/>
       <c r="M290" s="7"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7609,7 +7625,7 @@
       <c r="L291" s="7"/>
       <c r="M291" s="7"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7626,7 +7642,7 @@
       <c r="L292" s="7"/>
       <c r="M292" s="7"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7643,7 +7659,7 @@
       <c r="L293" s="7"/>
       <c r="M293" s="7"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7660,7 +7676,7 @@
       <c r="L294" s="7"/>
       <c r="M294" s="7"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7677,7 +7693,7 @@
       <c r="L295" s="7"/>
       <c r="M295" s="7"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7694,7 +7710,7 @@
       <c r="L296" s="7"/>
       <c r="M296" s="7"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7711,7 +7727,7 @@
       <c r="L297" s="7"/>
       <c r="M297" s="7"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7728,7 +7744,7 @@
       <c r="L298" s="7"/>
       <c r="M298" s="7"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7745,7 +7761,7 @@
       <c r="L299" s="7"/>
       <c r="M299" s="7"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7762,7 +7778,7 @@
       <c r="L300" s="7"/>
       <c r="M300" s="7"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7779,7 +7795,7 @@
       <c r="L301" s="7"/>
       <c r="M301" s="7"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7796,7 +7812,7 @@
       <c r="L302" s="7"/>
       <c r="M302" s="7"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7813,7 +7829,7 @@
       <c r="L303" s="7"/>
       <c r="M303" s="7"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7830,7 +7846,7 @@
       <c r="L304" s="7"/>
       <c r="M304" s="7"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7847,7 +7863,7 @@
       <c r="L305" s="7"/>
       <c r="M305" s="7"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7864,7 +7880,7 @@
       <c r="L306" s="7"/>
       <c r="M306" s="7"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7881,7 +7897,7 @@
       <c r="L307" s="7"/>
       <c r="M307" s="7"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7898,7 +7914,7 @@
       <c r="L308" s="7"/>
       <c r="M308" s="7"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7915,7 +7931,7 @@
       <c r="L309" s="7"/>
       <c r="M309" s="7"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7932,7 +7948,7 @@
       <c r="L310" s="7"/>
       <c r="M310" s="7"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7949,7 +7965,7 @@
       <c r="L311" s="7"/>
       <c r="M311" s="7"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7966,7 +7982,7 @@
       <c r="L312" s="7"/>
       <c r="M312" s="7"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="8" t="e">
         <f t="shared" si="4"/>
@@ -7983,7 +7999,7 @@
       <c r="L313" s="7"/>
       <c r="M313" s="7"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8000,7 +8016,7 @@
       <c r="L314" s="7"/>
       <c r="M314" s="7"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8017,7 +8033,7 @@
       <c r="L315" s="7"/>
       <c r="M315" s="7"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8034,7 +8050,7 @@
       <c r="L316" s="7"/>
       <c r="M316" s="7"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8051,7 +8067,7 @@
       <c r="L317" s="7"/>
       <c r="M317" s="7"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8068,7 +8084,7 @@
       <c r="L318" s="7"/>
       <c r="M318" s="7"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8085,7 +8101,7 @@
       <c r="L319" s="7"/>
       <c r="M319" s="7"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8102,7 +8118,7 @@
       <c r="L320" s="7"/>
       <c r="M320" s="7"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8119,7 +8135,7 @@
       <c r="L321" s="7"/>
       <c r="M321" s="7"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="8" t="e">
         <f t="shared" si="4"/>
@@ -8136,7 +8152,7 @@
       <c r="L322" s="7"/>
       <c r="M322" s="7"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="8" t="e">
         <f t="shared" ref="B323:B361" si="5">LEFT(A323, FIND(".",A323)-1)</f>
@@ -8153,7 +8169,7 @@
       <c r="L323" s="7"/>
       <c r="M323" s="7"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8170,7 +8186,7 @@
       <c r="L324" s="7"/>
       <c r="M324" s="7"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8187,7 +8203,7 @@
       <c r="L325" s="7"/>
       <c r="M325" s="7"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8204,7 +8220,7 @@
       <c r="L326" s="7"/>
       <c r="M326" s="7"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8221,7 +8237,7 @@
       <c r="L327" s="7"/>
       <c r="M327" s="7"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8238,7 +8254,7 @@
       <c r="L328" s="7"/>
       <c r="M328" s="7"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8255,7 +8271,7 @@
       <c r="L329" s="7"/>
       <c r="M329" s="7"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8272,7 +8288,7 @@
       <c r="L330" s="7"/>
       <c r="M330" s="7"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8289,7 +8305,7 @@
       <c r="L331" s="7"/>
       <c r="M331" s="7"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8306,7 +8322,7 @@
       <c r="L332" s="7"/>
       <c r="M332" s="7"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8323,7 +8339,7 @@
       <c r="L333" s="7"/>
       <c r="M333" s="7"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8340,7 +8356,7 @@
       <c r="L334" s="7"/>
       <c r="M334" s="7"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8357,7 +8373,7 @@
       <c r="L335" s="7"/>
       <c r="M335" s="7"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8374,7 +8390,7 @@
       <c r="L336" s="7"/>
       <c r="M336" s="7"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8391,7 +8407,7 @@
       <c r="L337" s="7"/>
       <c r="M337" s="7"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8408,7 +8424,7 @@
       <c r="L338" s="7"/>
       <c r="M338" s="7"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8425,7 +8441,7 @@
       <c r="L339" s="7"/>
       <c r="M339" s="7"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8442,7 +8458,7 @@
       <c r="L340" s="7"/>
       <c r="M340" s="7"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8459,7 +8475,7 @@
       <c r="L341" s="7"/>
       <c r="M341" s="7"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8476,7 +8492,7 @@
       <c r="L342" s="7"/>
       <c r="M342" s="7"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8493,7 +8509,7 @@
       <c r="L343" s="7"/>
       <c r="M343" s="7"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8510,7 +8526,7 @@
       <c r="L344" s="7"/>
       <c r="M344" s="7"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8527,7 +8543,7 @@
       <c r="L345" s="7"/>
       <c r="M345" s="7"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8544,7 +8560,7 @@
       <c r="L346" s="7"/>
       <c r="M346" s="7"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8561,7 +8577,7 @@
       <c r="L347" s="7"/>
       <c r="M347" s="7"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8578,7 +8594,7 @@
       <c r="L348" s="7"/>
       <c r="M348" s="7"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8595,7 +8611,7 @@
       <c r="L349" s="7"/>
       <c r="M349" s="7"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8612,7 +8628,7 @@
       <c r="L350" s="7"/>
       <c r="M350" s="7"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8629,7 +8645,7 @@
       <c r="L351" s="7"/>
       <c r="M351" s="7"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8646,7 +8662,7 @@
       <c r="L352" s="7"/>
       <c r="M352" s="7"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8663,7 +8679,7 @@
       <c r="L353" s="7"/>
       <c r="M353" s="7"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8680,7 +8696,7 @@
       <c r="L354" s="7"/>
       <c r="M354" s="7"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8697,7 +8713,7 @@
       <c r="L355" s="7"/>
       <c r="M355" s="7"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8714,7 +8730,7 @@
       <c r="L356" s="7"/>
       <c r="M356" s="7"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8731,7 +8747,7 @@
       <c r="L357" s="7"/>
       <c r="M357" s="7"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8748,7 +8764,7 @@
       <c r="L358" s="7"/>
       <c r="M358" s="7"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8765,7 +8781,7 @@
       <c r="L359" s="7"/>
       <c r="M359" s="7"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8782,7 +8798,7 @@
       <c r="L360" s="7"/>
       <c r="M360" s="7"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="8" t="e">
         <f t="shared" si="5"/>
@@ -8799,7 +8815,7 @@
       <c r="L361" s="7"/>
       <c r="M361" s="7"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6" t="e">
         <f t="shared" ref="B362:B392" si="6">LEFT(A362, FIND(".",A362)-1)</f>
@@ -8816,7 +8832,7 @@
       <c r="L362" s="7"/>
       <c r="M362" s="7"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8833,7 +8849,7 @@
       <c r="L363" s="7"/>
       <c r="M363" s="7"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8850,7 +8866,7 @@
       <c r="L364" s="7"/>
       <c r="M364" s="7"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8867,7 +8883,7 @@
       <c r="L365" s="7"/>
       <c r="M365" s="7"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8884,7 +8900,7 @@
       <c r="L366" s="7"/>
       <c r="M366" s="7"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8901,7 +8917,7 @@
       <c r="L367" s="7"/>
       <c r="M367" s="7"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8918,7 +8934,7 @@
       <c r="L368" s="7"/>
       <c r="M368" s="7"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8935,7 +8951,7 @@
       <c r="L369" s="7"/>
       <c r="M369" s="7"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8952,7 +8968,7 @@
       <c r="L370" s="7"/>
       <c r="M370" s="7"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8969,7 +8985,7 @@
       <c r="L371" s="7"/>
       <c r="M371" s="7"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6" t="e">
         <f t="shared" si="6"/>
@@ -8986,7 +9002,7 @@
       <c r="L372" s="7"/>
       <c r="M372" s="7"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9003,7 +9019,7 @@
       <c r="L373" s="7"/>
       <c r="M373" s="7"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9020,7 +9036,7 @@
       <c r="L374" s="7"/>
       <c r="M374" s="7"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9037,7 +9053,7 @@
       <c r="L375" s="7"/>
       <c r="M375" s="7"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9054,7 +9070,7 @@
       <c r="L376" s="7"/>
       <c r="M376" s="7"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9071,7 +9087,7 @@
       <c r="L377" s="7"/>
       <c r="M377" s="7"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9088,7 +9104,7 @@
       <c r="L378" s="7"/>
       <c r="M378" s="7"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9105,7 +9121,7 @@
       <c r="L379" s="7"/>
       <c r="M379" s="7"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9122,7 +9138,7 @@
       <c r="L380" s="7"/>
       <c r="M380" s="7"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9139,7 +9155,7 @@
       <c r="L381" s="7"/>
       <c r="M381" s="7"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9156,7 +9172,7 @@
       <c r="L382" s="7"/>
       <c r="M382" s="7"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9173,7 +9189,7 @@
       <c r="L383" s="7"/>
       <c r="M383" s="7"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9190,7 +9206,7 @@
       <c r="L384" s="7"/>
       <c r="M384" s="7"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9207,7 +9223,7 @@
       <c r="L385" s="7"/>
       <c r="M385" s="7"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9224,7 +9240,7 @@
       <c r="L386" s="7"/>
       <c r="M386" s="7"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9241,7 +9257,7 @@
       <c r="L387" s="7"/>
       <c r="M387" s="7"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9258,7 +9274,7 @@
       <c r="L388" s="7"/>
       <c r="M388" s="7"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9275,7 +9291,7 @@
       <c r="L389" s="7"/>
       <c r="M389" s="7"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9292,7 +9308,7 @@
       <c r="L390" s="7"/>
       <c r="M390" s="7"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9309,7 +9325,7 @@
       <c r="L391" s="7"/>
       <c r="M391" s="7"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6" t="e">
         <f t="shared" si="6"/>
@@ -9326,7 +9342,7 @@
       <c r="L392" s="7"/>
       <c r="M392" s="7"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6" t="e">
         <f t="shared" ref="B393:B443" si="7">LEFT(A393, FIND(".",A393)-1)</f>
@@ -9343,7 +9359,7 @@
       <c r="L393" s="7"/>
       <c r="M393" s="7"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9360,7 +9376,7 @@
       <c r="L394" s="7"/>
       <c r="M394" s="7"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9377,7 +9393,7 @@
       <c r="L395" s="7"/>
       <c r="M395" s="7"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9394,7 +9410,7 @@
       <c r="L396" s="7"/>
       <c r="M396" s="7"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9411,7 +9427,7 @@
       <c r="L397" s="7"/>
       <c r="M397" s="7"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9428,7 +9444,7 @@
       <c r="L398" s="7"/>
       <c r="M398" s="7"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9445,7 +9461,7 @@
       <c r="L399" s="7"/>
       <c r="M399" s="7"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9462,7 +9478,7 @@
       <c r="L400" s="7"/>
       <c r="M400" s="7"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9479,7 +9495,7 @@
       <c r="L401" s="7"/>
       <c r="M401" s="7"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9496,7 +9512,7 @@
       <c r="L402" s="7"/>
       <c r="M402" s="7"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9513,7 +9529,7 @@
       <c r="L403" s="7"/>
       <c r="M403" s="7"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9530,7 +9546,7 @@
       <c r="L404" s="7"/>
       <c r="M404" s="7"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9547,7 +9563,7 @@
       <c r="L405" s="7"/>
       <c r="M405" s="7"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9564,7 +9580,7 @@
       <c r="L406" s="7"/>
       <c r="M406" s="7"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9581,7 +9597,7 @@
       <c r="L407" s="7"/>
       <c r="M407" s="7"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9598,7 +9614,7 @@
       <c r="L408" s="7"/>
       <c r="M408" s="7"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9615,7 +9631,7 @@
       <c r="L409" s="7"/>
       <c r="M409" s="7"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9632,7 +9648,7 @@
       <c r="L410" s="7"/>
       <c r="M410" s="7"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9649,7 +9665,7 @@
       <c r="L411" s="7"/>
       <c r="M411" s="7"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9666,7 +9682,7 @@
       <c r="L412" s="7"/>
       <c r="M412" s="7"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9683,7 +9699,7 @@
       <c r="L413" s="7"/>
       <c r="M413" s="7"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9700,7 +9716,7 @@
       <c r="L414" s="7"/>
       <c r="M414" s="7"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9717,7 +9733,7 @@
       <c r="L415" s="7"/>
       <c r="M415" s="7"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9734,7 +9750,7 @@
       <c r="L416" s="7"/>
       <c r="M416" s="7"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9751,7 +9767,7 @@
       <c r="L417" s="7"/>
       <c r="M417" s="7"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9768,7 +9784,7 @@
       <c r="L418" s="7"/>
       <c r="M418" s="7"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6" t="e">
         <f t="shared" si="7"/>
@@ -9785,7 +9801,7 @@
       <c r="L419" s="7"/>
       <c r="M419" s="7"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B420" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9799,7 +9815,7 @@
       <c r="L420" s="7"/>
       <c r="M420" s="7"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B421" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9813,7 +9829,7 @@
       <c r="L421" s="7"/>
       <c r="M421" s="7"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B422" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9827,7 +9843,7 @@
       <c r="L422" s="7"/>
       <c r="M422" s="7"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B423" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9841,7 +9857,7 @@
       <c r="L423" s="7"/>
       <c r="M423" s="7"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B424" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9855,7 +9871,7 @@
       <c r="L424" s="7"/>
       <c r="M424" s="7"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B425" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9869,7 +9885,7 @@
       <c r="L425" s="7"/>
       <c r="M425" s="7"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B426" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9883,7 +9899,7 @@
       <c r="L426" s="7"/>
       <c r="M426" s="7"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B427" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9897,7 +9913,7 @@
       <c r="L427" s="7"/>
       <c r="M427" s="7"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B428" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9911,7 +9927,7 @@
       <c r="L428" s="7"/>
       <c r="M428" s="7"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B429" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9925,7 +9941,7 @@
       <c r="L429" s="7"/>
       <c r="M429" s="7"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B430" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9939,7 +9955,7 @@
       <c r="L430" s="7"/>
       <c r="M430" s="7"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B431" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9953,7 +9969,7 @@
       <c r="L431" s="7"/>
       <c r="M431" s="7"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B432" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9967,7 +9983,7 @@
       <c r="L432" s="7"/>
       <c r="M432" s="7"/>
     </row>
-    <row r="433" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B433" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9981,7 +9997,7 @@
       <c r="L433" s="7"/>
       <c r="M433" s="7"/>
     </row>
-    <row r="434" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B434" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -9995,7 +10011,7 @@
       <c r="L434" s="7"/>
       <c r="M434" s="7"/>
     </row>
-    <row r="435" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B435" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10009,7 +10025,7 @@
       <c r="L435" s="7"/>
       <c r="M435" s="7"/>
     </row>
-    <row r="436" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B436" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10023,7 +10039,7 @@
       <c r="L436" s="7"/>
       <c r="M436" s="7"/>
     </row>
-    <row r="437" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B437" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10037,7 +10053,7 @@
       <c r="L437" s="7"/>
       <c r="M437" s="7"/>
     </row>
-    <row r="438" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B438" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10051,7 +10067,7 @@
       <c r="L438" s="7"/>
       <c r="M438" s="7"/>
     </row>
-    <row r="439" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B439" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10065,7 +10081,7 @@
       <c r="L439" s="7"/>
       <c r="M439" s="7"/>
     </row>
-    <row r="440" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B440" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10079,7 +10095,7 @@
       <c r="L440" s="7"/>
       <c r="M440" s="7"/>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B441" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10093,7 +10109,7 @@
       <c r="L441" s="7"/>
       <c r="M441" s="7"/>
     </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B442" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10104,7 +10120,7 @@
       <c r="L442" s="7"/>
       <c r="M442" s="7"/>
     </row>
-    <row r="443" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B443" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
@@ -10115,7 +10131,7 @@
       <c r="L443" s="7"/>
       <c r="M443" s="7"/>
     </row>
-    <row r="444" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I444" s="7"/>
       <c r="J444" s="7"/>
       <c r="K444" s="7"/>
@@ -10138,24 +10154,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10193,7 +10209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>3.1</v>
       </c>
@@ -10231,7 +10247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3.2</v>
       </c>
@@ -10269,7 +10285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3.3</v>
       </c>
@@ -10307,7 +10323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3.4</v>
       </c>
@@ -10345,7 +10361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3.5</v>
       </c>
@@ -10383,7 +10399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3.6</v>
       </c>
@@ -10421,7 +10437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>4.0999999999999996</v>
       </c>
@@ -10459,7 +10475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>4.2</v>
       </c>
@@ -10497,7 +10513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4.3</v>
       </c>
@@ -10535,7 +10551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>4.4000000000000004</v>
       </c>
@@ -10573,7 +10589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4.5</v>
       </c>
@@ -10611,7 +10627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>4.5999999999999996</v>
       </c>
@@ -10649,7 +10665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>4.7</v>
       </c>
@@ -10687,7 +10703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4.8</v>
       </c>
@@ -10725,7 +10741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>4.9000000000000004</v>
       </c>
@@ -10763,7 +10779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -10799,7 +10815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5.2</v>
       </c>
@@ -10837,7 +10853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>5.3</v>
       </c>
@@ -10873,7 +10889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5.4</v>
       </c>
@@ -10909,7 +10925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>6.1</v>
       </c>
@@ -10947,7 +10963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>6.2</v>
       </c>
@@ -10985,7 +11001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>8.1</v>
       </c>
@@ -11023,7 +11039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>8.1999999999999993</v>
       </c>
@@ -11061,7 +11077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>8.3000000000000007</v>
       </c>
@@ -11099,7 +11115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>7.1</v>
       </c>
@@ -11129,7 +11145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>7.2</v>
       </c>
@@ -11159,7 +11175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>7.3</v>
       </c>
@@ -11189,7 +11205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8">
         <v>2</v>
@@ -11234,24 +11250,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B711E-0C6E-4B5A-9FBB-FC46A2BAD6F2}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="6"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -11289,7 +11305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -11325,7 +11341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>5.3</v>
       </c>
@@ -11361,7 +11377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>5.4</v>
       </c>
@@ -11397,7 +11413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>7.1</v>
       </c>
@@ -11416,7 +11432,9 @@
       <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
@@ -11429,7 +11447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>7.2</v>
       </c>
@@ -11448,7 +11466,9 @@
       <c r="F6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>6</v>
       </c>
@@ -11461,7 +11481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>7.3</v>
       </c>
@@ -11480,7 +11500,9 @@
       <c r="F7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
@@ -11493,7 +11515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7.4</v>
       </c>
@@ -11512,7 +11534,9 @@
       <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
@@ -11525,7 +11549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>10.1</v>
       </c>
@@ -11544,7 +11568,9 @@
       <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
@@ -11561,7 +11587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>10.199999999999999</v>
       </c>
@@ -11580,7 +11606,9 @@
       <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>6</v>
       </c>
@@ -11597,7 +11625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10.3</v>
       </c>
@@ -11616,7 +11644,9 @@
       <c r="F11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>6</v>
       </c>
@@ -11633,7 +11663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10.4</v>
       </c>
@@ -11652,7 +11682,9 @@
       <c r="F12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
@@ -11665,7 +11697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12.1</v>
       </c>
@@ -11684,7 +11716,9 @@
       <c r="F13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>5</v>
       </c>
@@ -11697,7 +11731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12.2</v>
       </c>
@@ -11716,7 +11750,9 @@
       <c r="F14" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>7</v>
       </c>
@@ -11729,7 +11765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>12.3</v>
       </c>
@@ -11748,7 +11784,9 @@
       <c r="F15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>7</v>
       </c>
@@ -11761,7 +11799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>12.4</v>
       </c>
@@ -11780,7 +11818,9 @@
       <c r="F16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
@@ -11793,7 +11833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>12.5</v>
       </c>
@@ -11812,7 +11852,9 @@
       <c r="F17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>7</v>
       </c>
@@ -11824,6 +11866,116 @@
       <c r="L17" s="10" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -11841,20 +11993,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
@@ -11866,7 +12018,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -11886,7 +12038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -11909,7 +12061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
@@ -11932,7 +12084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -11955,7 +12107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -11978,7 +12130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
@@ -12014,14 +12166,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -12089,7 +12241,7 @@
       <c r="BE1" s="34"/>
       <c r="BF1" s="34"/>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -12103,7 +12255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -12131,24 +12283,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biasutti\IdeaProjects\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57980516-B38E-4756-A666-ADE9B8D747B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 1 Backlog'!$A$1:$CA$443</definedName>
     <definedName name="Status">Status!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -752,7 +751,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,23 +1040,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1093,23 +1075,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1285,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1572,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2048,7 +2013,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2058,7 +2023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10139,9 +10104,9 @@
       <c r="M444" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CA443" xr:uid="{1058BA28-F955-4061-BB80-D8E922C7B585}"/>
+  <autoFilter ref="A1:CA443"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -10151,7 +10116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BB9057-DB96-4490-AA5C-2C8E1D8C4158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -11239,7 +11204,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L29" xr:uid="{06F441D2-3BEA-4D5B-BF28-5AD61F868919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L29">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -11249,11 +11214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B711E-0C6E-4B5A-9FBB-FC46A2BAD6F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11441,10 +11406,14 @@
       <c r="I5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
       <c r="L5" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11475,10 +11444,14 @@
       <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="10">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
       <c r="L6" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -11509,10 +11482,14 @@
       <c r="I7" s="10">
         <v>4</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="10">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4</v>
+      </c>
       <c r="L7" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11543,10 +11520,14 @@
       <c r="I8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10">
+        <v>2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>2</v>
+      </c>
       <c r="L8" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -11979,7 +11960,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17" xr:uid="{AA051B77-EAC9-4B21-968E-19CEF353F35C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -11989,7 +11970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12159,7 +12140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12276,7 +12257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/task06/team_green_scrum_planning.xlsx
+++ b/doc/task06/team_green_scrum_planning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biasutti\IdeaProjects\ch.bfh.bti7081.s2020.green\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\intelij-workspace\ch.bfh.bti7081.s2020.green\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AE1621-D813-43C4-8572-E7B8CC44A43A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 1 Backlog'!$A$1:$CA$443</definedName>
     <definedName name="Status">Status!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="236">
   <si>
     <t>ID</t>
   </si>
@@ -746,12 +747,15 @@
   </si>
   <si>
     <t>Demo aufzeichnen</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,6 +1044,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1075,6 +1096,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1250,7 +1288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1448,7 +1486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1537,12 +1575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DH13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:112" ht="30" x14ac:dyDescent="0.25">
@@ -2007,13 +2045,13 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
-        <v>8</v>
+      <c r="H13" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2023,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CA444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10104,9 +10142,9 @@
       <c r="M444" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CA443"/>
+  <autoFilter ref="A1:CA443" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M238" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -10116,11 +10154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10775,9 +10813,11 @@
       <c r="J17" s="10">
         <v>2</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="10">
+        <v>2</v>
+      </c>
       <c r="L17" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -10849,9 +10889,11 @@
       <c r="J19" s="10">
         <v>2</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="10">
+        <v>2</v>
+      </c>
       <c r="L19" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10885,9 +10927,11 @@
       <c r="J20" s="10">
         <v>2</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="10">
+        <v>2</v>
+      </c>
       <c r="L20" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -11204,7 +11248,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L29" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -11214,11 +11258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11301,9 +11345,11 @@
       <c r="J2" s="10">
         <v>2</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="10">
+        <v>2</v>
+      </c>
       <c r="L2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -11337,9 +11383,11 @@
       <c r="J3" s="10">
         <v>2</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10">
+        <v>2</v>
+      </c>
       <c r="L3" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11373,9 +11421,11 @@
       <c r="J4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10">
+        <v>2</v>
+      </c>
       <c r="L4" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11641,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -11672,10 +11722,14 @@
       <c r="I12" s="16">
         <v>1</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="16">
+        <v>2</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
       <c r="L12" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11706,10 +11760,14 @@
       <c r="I13" s="16">
         <v>4</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="16">
+        <v>4</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>235</v>
+      </c>
       <c r="L13" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -11740,10 +11798,14 @@
       <c r="I14" s="16">
         <v>4</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="16">
+        <v>4</v>
+      </c>
       <c r="L14" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -11774,10 +11836,14 @@
       <c r="I15" s="16">
         <v>2</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="16">
+        <v>2</v>
+      </c>
+      <c r="K15" s="16">
+        <v>2</v>
+      </c>
       <c r="L15" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -11808,10 +11874,14 @@
       <c r="I16" s="16">
         <v>2</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1</v>
+      </c>
       <c r="L16" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -11842,10 +11912,14 @@
       <c r="I17" s="16">
         <v>2</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="J17" s="16">
+        <v>2</v>
+      </c>
+      <c r="K17" s="16">
+        <v>2</v>
+      </c>
       <c r="L17" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -11868,7 +11942,9 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="L18" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -11890,7 +11966,9 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -11912,7 +11990,9 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="L20" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -11934,7 +12014,9 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="L21" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -11956,11 +12038,13 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="L22" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L22" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -11970,7 +12054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12140,7 +12224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12257,7 +12341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
